--- a/data/hotels_by_city/Dallas/Dallas_shard_698.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_698.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="554">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1606 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r571109860-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>1026120</t>
+  </si>
+  <si>
+    <t>571109860</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>The Worst Receptionist Man Ever</t>
+  </si>
+  <si>
+    <t>I have been to many Hotels all over the World but I did not face a situation like this before
+The worst receptionist man ever
+The Guy on the Reception called Michael who is pretending to be the Manager and who should not be in this place at all because if you want happy customers and good reputation for your Hotel you need to put helpful stuff there, not one like this rude one who made our stay at Staybridge not pleasant at all from the day we checked in till the day we checked out from the Hotel after 3 nights, and which it was mentioned to be 13 nights but because of this Guy we shortened it to 3 nights
+At check in, my Wife and I waited around 1 hour in the reception area after 22 hours of Flight because the visa card did not work, I told him that I will pay cash all nights and you have my ID so where is the problem, he did not accept, after around 1 hour of negotiations I gave him another card to check it if it works and to reserve 3 Nights until I solve the problem of the original card with my Bank, so he used it and we managed to check in at last.
+The following days I asked the other persons on the Reception if I can pay when checking out or you still...I have been to many Hotels all over the World but I did not face a situation like this beforeThe worst receptionist man everThe Guy on the Reception called Michael who is pretending to be the Manager and who should not be in this place at all because if you want happy customers and good reputation for your Hotel you need to put helpful stuff there, not one like this rude one who made our stay at Staybridge not pleasant at all from the day we checked in till the day we checked out from the Hotel after 3 nights, and which it was mentioned to be 13 nights but because of this Guy we shortened it to 3 nightsAt check in, my Wife and I waited around 1 hour in the reception area after 22 hours of Flight because the visa card did not work, I told him that I will pay cash all nights and you have my ID so where is the problem, he did not accept, after around 1 hour of negotiations I gave him another card to check it if it works and to reserve 3 Nights until I solve the problem of the original card with my Bank, so he used it and we managed to check in at last.The following days I asked the other persons on the Reception if I can pay when checking out or you still need the other card for authorization, they were very friendly and they told me that I can pay at checkout no problem, also they told us that we can go by the Hotel Free Shuttle to one of the Malls.The following day we decided to go to the Mall that the nice receptionists told us about and it was the turn of that man on the reception, he told us that the Hotel Shuttle does not go to this Mall at all and he asked us about the card because he wanted to authorize all the nights, we told him what the other receptionists said and that we could pay when checking out but he was not listening and he was very impolite thinking that he is above people, knowing that those people are the ones who pay him for that job to live.The same night I reserved another Hotel and I checked out.Sometimes one person could affect very negatively on a Hotel and make your stay unpleasant at all no matter what the Hotel was offering.I do not recommend this Hotel to anyoneMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>I have been to many Hotels all over the World but I did not face a situation like this before
+The worst receptionist man ever
+The Guy on the Reception called Michael who is pretending to be the Manager and who should not be in this place at all because if you want happy customers and good reputation for your Hotel you need to put helpful stuff there, not one like this rude one who made our stay at Staybridge not pleasant at all from the day we checked in till the day we checked out from the Hotel after 3 nights, and which it was mentioned to be 13 nights but because of this Guy we shortened it to 3 nights
+At check in, my Wife and I waited around 1 hour in the reception area after 22 hours of Flight because the visa card did not work, I told him that I will pay cash all nights and you have my ID so where is the problem, he did not accept, after around 1 hour of negotiations I gave him another card to check it if it works and to reserve 3 Nights until I solve the problem of the original card with my Bank, so he used it and we managed to check in at last.
+The following days I asked the other persons on the Reception if I can pay when checking out or you still...I have been to many Hotels all over the World but I did not face a situation like this beforeThe worst receptionist man everThe Guy on the Reception called Michael who is pretending to be the Manager and who should not be in this place at all because if you want happy customers and good reputation for your Hotel you need to put helpful stuff there, not one like this rude one who made our stay at Staybridge not pleasant at all from the day we checked in till the day we checked out from the Hotel after 3 nights, and which it was mentioned to be 13 nights but because of this Guy we shortened it to 3 nightsAt check in, my Wife and I waited around 1 hour in the reception area after 22 hours of Flight because the visa card did not work, I told him that I will pay cash all nights and you have my ID so where is the problem, he did not accept, after around 1 hour of negotiations I gave him another card to check it if it works and to reserve 3 Nights until I solve the problem of the original card with my Bank, so he used it and we managed to check in at last.The following days I asked the other persons on the Reception if I can pay when checking out or you still need the other card for authorization, they were very friendly and they told me that I can pay at checkout no problem, also they told us that we can go by the Hotel Free Shuttle to one of the Malls.The following day we decided to go to the Mall that the nice receptionists told us about and it was the turn of that man on the reception, he told us that the Hotel Shuttle does not go to this Mall at all and he asked us about the card because he wanted to authorize all the nights, we told him what the other receptionists said and that we could pay when checking out but he was not listening and he was very impolite thinking that he is above people, knowing that those people are the ones who pay him for that job to live.The same night I reserved another Hotel and I checked out.Sometimes one person could affect very negatively on a Hotel and make your stay unpleasant at all no matter what the Hotel was offering.I do not recommend this Hotel to anyoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r553464990-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>553464990</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very decent for a DFW airport hotel </t>
+  </si>
+  <si>
+    <t>Definitely comfortable if you are flying out of DWF.  We had a two room suite and it was perfect for us.  The room was comfortable and had everything we need.  One of the bathroom lights didn’t work - but other than that no complaints. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Definitely comfortable if you are flying out of DWF.  We had a two room suite and it was perfect for us.  The room was comfortable and had everything we need.  One of the bathroom lights didn’t work - but other than that no complaints. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r522699281-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>522699281</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Stayed only 1 night, but would stay again</t>
+  </si>
+  <si>
+    <t>We were upgraded so the room was large and comfy. They do have an airport shuttle but I forgot and had a taxi bring us to the hotel...RIPOFF, the guy charged us $35.00 one way, and its not that far from the airport. We did sign up for the free shuttle to take us back to the airport,( which I was concerned about, since it was only a regular van, but there was only 1 other man that needed to be at the airport on the 1st shuttle.)Did not see much as far as other restaurants while driving there, but Tuesday nights they have a dinner there at the breakfast area, so we had sloppy joes and salad... the breakfast buffet was great, plenty of fresh fruit, a couple finds of breakfast pizza, scrambled eggs, and breads. I did see a pool, but did not use it since we were pretty tired from a long flight... then had to fly out early the next day. Looked great for couples as well as families. Bed was comfortable and towels were upgraded....huge, which was greatMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>We were upgraded so the room was large and comfy. They do have an airport shuttle but I forgot and had a taxi bring us to the hotel...RIPOFF, the guy charged us $35.00 one way, and its not that far from the airport. We did sign up for the free shuttle to take us back to the airport,( which I was concerned about, since it was only a regular van, but there was only 1 other man that needed to be at the airport on the 1st shuttle.)Did not see much as far as other restaurants while driving there, but Tuesday nights they have a dinner there at the breakfast area, so we had sloppy joes and salad... the breakfast buffet was great, plenty of fresh fruit, a couple finds of breakfast pizza, scrambled eggs, and breads. I did see a pool, but did not use it since we were pretty tired from a long flight... then had to fly out early the next day. Looked great for couples as well as families. Bed was comfortable and towels were upgraded....huge, which was greatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r493710761-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>493710761</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Potential for Excellece - let down by many small things</t>
+  </si>
+  <si>
+    <t>I stayed at Staybridge Suites Irving for 2 weeks recently.
+The property is located between an upscale neighbourhood and the highway.
+Within walking distance are; a big box hardware store, huge electronics store and a few restaurants.
+The entranceway has a seating area and I saw mostly smokers congregated there, as there are specific cigarette ash trays for their use.  Oddly there is a no smoking within 25 feet sign, just 15 feet from the smoking area.  Arriving back to the hotel on “Social” evenings, you need to work your way through the congregation of smokers at the front.
+There are 2 speakers at the entrance tuned to a local radio station, so you get a mix of music and talk/news and advertising.  The speakers are not always running – not sure why.
+The front desk staff were always friendly, although some of them are often seen immersed in their smart phones.
+The area immediately behind the desk was always cluttered with packages, vacuum cleaners, tools, etc.….
+The breakfast room was well laid out and had very comfortable leather seating.
+They had a choice of Styrofoam/plastic or real plates and cutlery.
+There was always a selection of cut fruit and the eggs tasted real (not from powder)
+In back of the breakfast room, there is a small pool area and adjacent BBQ and lounging area.
+Beside the breakfast room is a 30 seat theater where you can borrow DVDs and...I stayed at Staybridge Suites Irving for 2 weeks recently.The property is located between an upscale neighbourhood and the highway.Within walking distance are; a big box hardware store, huge electronics store and a few restaurants.The entranceway has a seating area and I saw mostly smokers congregated there, as there are specific cigarette ash trays for their use.  Oddly there is a no smoking within 25 feet sign, just 15 feet from the smoking area.  Arriving back to the hotel on “Social” evenings, you need to work your way through the congregation of smokers at the front.There are 2 speakers at the entrance tuned to a local radio station, so you get a mix of music and talk/news and advertising.  The speakers are not always running – not sure why.The front desk staff were always friendly, although some of them are often seen immersed in their smart phones.The area immediately behind the desk was always cluttered with packages, vacuum cleaners, tools, etc.….The breakfast room was well laid out and had very comfortable leather seating.They had a choice of Styrofoam/plastic or real plates and cutlery.There was always a selection of cut fruit and the eggs tasted real (not from powder)In back of the breakfast room, there is a small pool area and adjacent BBQ and lounging area.Beside the breakfast room is a 30 seat theater where you can borrow DVDs and have viewings.The Business room with computers has a library of books and games.I saw some conference rooms.Laundry is on the main floor.There is a small gym with machine weights, aerobic machines and some floor equipment like stability balls, rubber bands, mats, etc. There is a TV and some sanitizer to clean the equipment after usage.There are 2 elevators.  They move slowly.SuiteI was on the 4th floor in a one bedroom suite which seemed a bit dark for the following reasons:-	The décor of the suite is dark.  All dark brown wood, dark chairs, etc.-	The lighting is old weak spiral fluorescents made more dim by being in shades-	The window decorative side curtains are permanently adjusted to block about 8 inches of window on each sideLiving areaOne single window which does not openHide-away couch (which I found to be uncomfortably hard and very narrow)Large very comfortable leather easy chairWork desk (large)Work chair (very comfortable adjustable faux leather)Internet &amp; connectivity-	Measured both wired and wireless at a very slow 2 Mpbs throughout my stay.  -	No USB charging ports availableKitchen-	Good layout-	Fridge temperature was set way too low before I knew about it and melted my first freezer items-	Fridge was a bit loud at timesBedroom-	One single window that does not open-	Large comfortable bed with good linens-	Comfortable leather arm chair-	Good amount of storage-       Alarm clockBathroom-	Sink/mirror separated from toilette and tub/shower area-	Amenities; The usual, however I had only 1 single shampoo, when staff knew I was staying long term and there is a sign in the room that says if you are staying more than one week, only once per week room maintenance is provided.-	Bathroom fan very loudWater Temperature/Pressure-	Pressure is med/low-	All 3 water faucets in the suite are dark brown and have no visible HOT/COLD indications.  Selecting the right temperature required experimentation as to which direction to go.AirCon/Ventilation-	The AirCon control is remote and you must remove it from its holder and point it to the wall sensor in the kitchen to change settings.  Only when you hear a beep has the setting been taken.-	I had to experiment for a few days to find what worked, because whatever I dialed in, the actual temperature ended up to be about 10 degrees lower.   I usually kept the control at 76F, which ended up being 66F (as measured on my watch when not on my wrist)Other Controls-	In the bedroom, I counted 4 separate wall switches which did nothing.  I asked the maintenance person what they did and he didn’t know.Entertainment-	2 med. size flat screens with some premium channels included -	All the channels listed in the guide were actually available (note there is a laminated card showing  available channels – there are actually more channels available compared to what is on the laminated card)-	Channels and TV are true high definition-	There is an available external HDMI input where you can plug in a Chrome dongle or your laptop, however you can’t select that HDMI input with the universal remote.  Instead you need to use the controls on the side of the TV itself (Menu/Inputs)-       There is one DVD player in the living room and I did see DVDs to borrow in the lobby.Cleanliness-	Overall OK, but I did see traces of former guests in my suite; oily finger impressions on cupboard doors in the kitchen, stains and a chewing gum mini blob on my night table.  Even in the elevator I saw the same hand prints for the entire 2 weeks of my stay.  Unlike other hotels where I’ve seen staff busy cleaning and polishing the common areas, I saw little of that at this property.Maintenance-	Bathroom lamp above sink defective upon my arrival-	Toilette seat missing one attachment cap cover-	Toilette roll holder was broken and temporarily propped up-	Shower curtain was partially torn out of some of the eye-lets-	Faux Leather desk work chair torn up (read about this in other reviews as well)-	Faucet in kitchen didn’t output hot water when handle turned either way(hot water port in cartridge likely clogged)-       Faucet in kitchen has scale buildup at the baseSoundproof?-	 Very good on 4th floor near end of hallwaySecurity-	No in-room safe-	Card swipe required from outside doors (except lobby entrance)Other amenities-	Hair dryer, iron, ironing boardAlso-	Kitchen floor and bathroom are dark brown tile, remainder of suite is carpetedWhat I liked-	Quiet and secure-	Comfortable bed-	Breakfast area comfort and food choiceTo improve-	Internet speed-	Extra level of cleanliness, attention to detail-	Provide more amenities for long term guests-	Maintenance items (torn chair, light bulbs burnt out, toilette holder, kitchen tap no hot water) maybe a room checklist for housekeeping staff would help-	Don’t allow clutter to build-up in the front desk area (first view a person sees when checking in)-	Replace spiral lights with dimmable LEDs-	Label unused light switches as such-	Add labels to faucets indicating Hot &amp; Cold-	Adjust border curtains to allow more light into the rooms-	Provide another area specifically for smokers (by removing a couple of parking spaces)Considering the features of the common areas (outdoor pool and BBQ, cinema, library, etc...) I think this property would be great for a family reunion, get-together, or company retreat.This hotel has all the basics for excellence.  Some small upgrades, attention to details and maintenance improvements would go a long way.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at Staybridge Suites Irving for 2 weeks recently.
+The property is located between an upscale neighbourhood and the highway.
+Within walking distance are; a big box hardware store, huge electronics store and a few restaurants.
+The entranceway has a seating area and I saw mostly smokers congregated there, as there are specific cigarette ash trays for their use.  Oddly there is a no smoking within 25 feet sign, just 15 feet from the smoking area.  Arriving back to the hotel on “Social” evenings, you need to work your way through the congregation of smokers at the front.
+There are 2 speakers at the entrance tuned to a local radio station, so you get a mix of music and talk/news and advertising.  The speakers are not always running – not sure why.
+The front desk staff were always friendly, although some of them are often seen immersed in their smart phones.
+The area immediately behind the desk was always cluttered with packages, vacuum cleaners, tools, etc.….
+The breakfast room was well laid out and had very comfortable leather seating.
+They had a choice of Styrofoam/plastic or real plates and cutlery.
+There was always a selection of cut fruit and the eggs tasted real (not from powder)
+In back of the breakfast room, there is a small pool area and adjacent BBQ and lounging area.
+Beside the breakfast room is a 30 seat theater where you can borrow DVDs and...I stayed at Staybridge Suites Irving for 2 weeks recently.The property is located between an upscale neighbourhood and the highway.Within walking distance are; a big box hardware store, huge electronics store and a few restaurants.The entranceway has a seating area and I saw mostly smokers congregated there, as there are specific cigarette ash trays for their use.  Oddly there is a no smoking within 25 feet sign, just 15 feet from the smoking area.  Arriving back to the hotel on “Social” evenings, you need to work your way through the congregation of smokers at the front.There are 2 speakers at the entrance tuned to a local radio station, so you get a mix of music and talk/news and advertising.  The speakers are not always running – not sure why.The front desk staff were always friendly, although some of them are often seen immersed in their smart phones.The area immediately behind the desk was always cluttered with packages, vacuum cleaners, tools, etc.….The breakfast room was well laid out and had very comfortable leather seating.They had a choice of Styrofoam/plastic or real plates and cutlery.There was always a selection of cut fruit and the eggs tasted real (not from powder)In back of the breakfast room, there is a small pool area and adjacent BBQ and lounging area.Beside the breakfast room is a 30 seat theater where you can borrow DVDs and have viewings.The Business room with computers has a library of books and games.I saw some conference rooms.Laundry is on the main floor.There is a small gym with machine weights, aerobic machines and some floor equipment like stability balls, rubber bands, mats, etc. There is a TV and some sanitizer to clean the equipment after usage.There are 2 elevators.  They move slowly.SuiteI was on the 4th floor in a one bedroom suite which seemed a bit dark for the following reasons:-	The décor of the suite is dark.  All dark brown wood, dark chairs, etc.-	The lighting is old weak spiral fluorescents made more dim by being in shades-	The window decorative side curtains are permanently adjusted to block about 8 inches of window on each sideLiving areaOne single window which does not openHide-away couch (which I found to be uncomfortably hard and very narrow)Large very comfortable leather easy chairWork desk (large)Work chair (very comfortable adjustable faux leather)Internet &amp; connectivity-	Measured both wired and wireless at a very slow 2 Mpbs throughout my stay.  -	No USB charging ports availableKitchen-	Good layout-	Fridge temperature was set way too low before I knew about it and melted my first freezer items-	Fridge was a bit loud at timesBedroom-	One single window that does not open-	Large comfortable bed with good linens-	Comfortable leather arm chair-	Good amount of storage-       Alarm clockBathroom-	Sink/mirror separated from toilette and tub/shower area-	Amenities; The usual, however I had only 1 single shampoo, when staff knew I was staying long term and there is a sign in the room that says if you are staying more than one week, only once per week room maintenance is provided.-	Bathroom fan very loudWater Temperature/Pressure-	Pressure is med/low-	All 3 water faucets in the suite are dark brown and have no visible HOT/COLD indications.  Selecting the right temperature required experimentation as to which direction to go.AirCon/Ventilation-	The AirCon control is remote and you must remove it from its holder and point it to the wall sensor in the kitchen to change settings.  Only when you hear a beep has the setting been taken.-	I had to experiment for a few days to find what worked, because whatever I dialed in, the actual temperature ended up to be about 10 degrees lower.   I usually kept the control at 76F, which ended up being 66F (as measured on my watch when not on my wrist)Other Controls-	In the bedroom, I counted 4 separate wall switches which did nothing.  I asked the maintenance person what they did and he didn’t know.Entertainment-	2 med. size flat screens with some premium channels included -	All the channels listed in the guide were actually available (note there is a laminated card showing  available channels – there are actually more channels available compared to what is on the laminated card)-	Channels and TV are true high definition-	There is an available external HDMI input where you can plug in a Chrome dongle or your laptop, however you can’t select that HDMI input with the universal remote.  Instead you need to use the controls on the side of the TV itself (Menu/Inputs)-       There is one DVD player in the living room and I did see DVDs to borrow in the lobby.Cleanliness-	Overall OK, but I did see traces of former guests in my suite; oily finger impressions on cupboard doors in the kitchen, stains and a chewing gum mini blob on my night table.  Even in the elevator I saw the same hand prints for the entire 2 weeks of my stay.  Unlike other hotels where I’ve seen staff busy cleaning and polishing the common areas, I saw little of that at this property.Maintenance-	Bathroom lamp above sink defective upon my arrival-	Toilette seat missing one attachment cap cover-	Toilette roll holder was broken and temporarily propped up-	Shower curtain was partially torn out of some of the eye-lets-	Faux Leather desk work chair torn up (read about this in other reviews as well)-	Faucet in kitchen didn’t output hot water when handle turned either way(hot water port in cartridge likely clogged)-       Faucet in kitchen has scale buildup at the baseSoundproof?-	 Very good on 4th floor near end of hallwaySecurity-	No in-room safe-	Card swipe required from outside doors (except lobby entrance)Other amenities-	Hair dryer, iron, ironing boardAlso-	Kitchen floor and bathroom are dark brown tile, remainder of suite is carpetedWhat I liked-	Quiet and secure-	Comfortable bed-	Breakfast area comfort and food choiceTo improve-	Internet speed-	Extra level of cleanliness, attention to detail-	Provide more amenities for long term guests-	Maintenance items (torn chair, light bulbs burnt out, toilette holder, kitchen tap no hot water) maybe a room checklist for housekeeping staff would help-	Don’t allow clutter to build-up in the front desk area (first view a person sees when checking in)-	Replace spiral lights with dimmable LEDs-	Label unused light switches as such-	Add labels to faucets indicating Hot &amp; Cold-	Adjust border curtains to allow more light into the rooms-	Provide another area specifically for smokers (by removing a couple of parking spaces)Considering the features of the common areas (outdoor pool and BBQ, cinema, library, etc...) I think this property would be great for a family reunion, get-together, or company retreat.This hotel has all the basics for excellence.  Some small upgrades, attention to details and maintenance improvements would go a long way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r489777993-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>489777993</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Good, but some things were very disappointing...</t>
+  </si>
+  <si>
+    <t>I've stayed at Staybridge Suites in other states before and I loved it, which is why I chose to stay at this hotel. However, this time, I was disappointed. Many things were wrong. First, the first room we were given had a broken closet door and broken kitchen tiles that could be dangerous if walking barefooted. We immediately requested a room change. Second, the second room had a bathroom door couldn’t be properly opened or closed because it rubbed on the bathroom floor. We had to push hard to open and close the bathroom door, which made a horrible noise causing one of us to be awaken if the other person needed to use the bathroom.  Third, the bathroom sink water pressure was extremely low and took a long time to get warm. Also, white lime deposits were caked up and very visible on the bathroom faucet and it made brushing our teeth disturbing. We began using bottled water to brush our teeth and wash our face.  Fourth, our DVD player kept turning off in the middle of a movie.  Fifth, almost every time we left the hotel and returned, our room keys wouldn't work. Several times we went up to our room and then had to return all the way back downstairs to get a new key. This terribly annoyed me especially when returning late and tired.  We asked why this kept happening and were told to keep the...I've stayed at Staybridge Suites in other states before and I loved it, which is why I chose to stay at this hotel. However, this time, I was disappointed. Many things were wrong. First, the first room we were given had a broken closet door and broken kitchen tiles that could be dangerous if walking barefooted. We immediately requested a room change. Second, the second room had a bathroom door couldn’t be properly opened or closed because it rubbed on the bathroom floor. We had to push hard to open and close the bathroom door, which made a horrible noise causing one of us to be awaken if the other person needed to use the bathroom.  Third, the bathroom sink water pressure was extremely low and took a long time to get warm. Also, white lime deposits were caked up and very visible on the bathroom faucet and it made brushing our teeth disturbing. We began using bottled water to brush our teeth and wash our face.  Fourth, our DVD player kept turning off in the middle of a movie.  Fifth, almost every time we left the hotel and returned, our room keys wouldn't work. Several times we went up to our room and then had to return all the way back downstairs to get a new key. This terribly annoyed me especially when returning late and tired.  We asked why this kept happening and were told to keep the key away from our cell phones. We did, but the key still stopped working. This was very annoying! Sixth, when returning to our room late one night and after getting new keys, we opened the door and the hinges pulled completely out of the door frame putting saw dust on the floor and on our clothing. We then had to stand their holding the door open until someone came to fix it.  Seventh, on one day, we tried to use our iron, but it was completely broken with water leaking onto our clothes and the carpet. I called the front desk to request another iron and waited almost thirty minutes.  Then I had to call again because no one brought and iron to my room, which almost made me late to an event.  Eighth, the weekend breakfast employee wasn't very nice. We asked two questions about some of the food and our questions were met with very sarcastic remarks. For instance, I asked what an item was and her remark was "It's Breakfast". Then I asked if she could tell me what it was and her second remark was, "Of course I can, I made it". She then walked away and I never asked another question. On the same morning, my wife was walking to the juice machine to get more orange juice and the woman turned off the machine. She then told my wife that it was 10:32 and breakfast was over. We both felt that was very rude and other guests even shook their heads at the situation because they also tried to get some more juice. It was only 10:32!  Now, on a good note, Jessica the front desk manager and Charles the engineer was extremely kind, courteous and helpful with our problems. I commend them both!!  The room and hotel was very clean, which was a great thing.  The food was also very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at Staybridge Suites in other states before and I loved it, which is why I chose to stay at this hotel. However, this time, I was disappointed. Many things were wrong. First, the first room we were given had a broken closet door and broken kitchen tiles that could be dangerous if walking barefooted. We immediately requested a room change. Second, the second room had a bathroom door couldn’t be properly opened or closed because it rubbed on the bathroom floor. We had to push hard to open and close the bathroom door, which made a horrible noise causing one of us to be awaken if the other person needed to use the bathroom.  Third, the bathroom sink water pressure was extremely low and took a long time to get warm. Also, white lime deposits were caked up and very visible on the bathroom faucet and it made brushing our teeth disturbing. We began using bottled water to brush our teeth and wash our face.  Fourth, our DVD player kept turning off in the middle of a movie.  Fifth, almost every time we left the hotel and returned, our room keys wouldn't work. Several times we went up to our room and then had to return all the way back downstairs to get a new key. This terribly annoyed me especially when returning late and tired.  We asked why this kept happening and were told to keep the...I've stayed at Staybridge Suites in other states before and I loved it, which is why I chose to stay at this hotel. However, this time, I was disappointed. Many things were wrong. First, the first room we were given had a broken closet door and broken kitchen tiles that could be dangerous if walking barefooted. We immediately requested a room change. Second, the second room had a bathroom door couldn’t be properly opened or closed because it rubbed on the bathroom floor. We had to push hard to open and close the bathroom door, which made a horrible noise causing one of us to be awaken if the other person needed to use the bathroom.  Third, the bathroom sink water pressure was extremely low and took a long time to get warm. Also, white lime deposits were caked up and very visible on the bathroom faucet and it made brushing our teeth disturbing. We began using bottled water to brush our teeth and wash our face.  Fourth, our DVD player kept turning off in the middle of a movie.  Fifth, almost every time we left the hotel and returned, our room keys wouldn't work. Several times we went up to our room and then had to return all the way back downstairs to get a new key. This terribly annoyed me especially when returning late and tired.  We asked why this kept happening and were told to keep the key away from our cell phones. We did, but the key still stopped working. This was very annoying! Sixth, when returning to our room late one night and after getting new keys, we opened the door and the hinges pulled completely out of the door frame putting saw dust on the floor and on our clothing. We then had to stand their holding the door open until someone came to fix it.  Seventh, on one day, we tried to use our iron, but it was completely broken with water leaking onto our clothes and the carpet. I called the front desk to request another iron and waited almost thirty minutes.  Then I had to call again because no one brought and iron to my room, which almost made me late to an event.  Eighth, the weekend breakfast employee wasn't very nice. We asked two questions about some of the food and our questions were met with very sarcastic remarks. For instance, I asked what an item was and her remark was "It's Breakfast". Then I asked if she could tell me what it was and her second remark was, "Of course I can, I made it". She then walked away and I never asked another question. On the same morning, my wife was walking to the juice machine to get more orange juice and the woman turned off the machine. She then told my wife that it was 10:32 and breakfast was over. We both felt that was very rude and other guests even shook their heads at the situation because they also tried to get some more juice. It was only 10:32!  Now, on a good note, Jessica the front desk manager and Charles the engineer was extremely kind, courteous and helpful with our problems. I commend them both!!  The room and hotel was very clean, which was a great thing.  The food was also very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r486724077-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>486724077</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>No shuttle on weekend</t>
+  </si>
+  <si>
+    <t>The room was well appointed and a good size with a desk, lounge area and a kitchenette with dishwasher, microwave &amp; fridge.   The queen bed was comfortable.    Bathroom had a shower only with good water pressure though the bathroom light/fan was extremely noisy.    The reception and breakfast area were nice and clean.   We had to wait 35 minutes for the shuttle from the airport.  The driver did call us after 25 minutes apologizing for the delay.    We stayed on a Friday night and didn’t realise the shuttle didn’t run on the weekend.   During our stay we were told one of the shuttle drivers has a taxi on the weekend.   I’m not sure whether or not he picked us up on our return as we booked a taxi back to the airport through reception.   The driver pulled up in a car/van and then told us it was a fixed rate of $32.00 to the airport which was expensive.    I would give this hotel 4 stars for the accommodation and would stay here again though not on the weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>The room was well appointed and a good size with a desk, lounge area and a kitchenette with dishwasher, microwave &amp; fridge.   The queen bed was comfortable.    Bathroom had a shower only with good water pressure though the bathroom light/fan was extremely noisy.    The reception and breakfast area were nice and clean.   We had to wait 35 minutes for the shuttle from the airport.  The driver did call us after 25 minutes apologizing for the delay.    We stayed on a Friday night and didn’t realise the shuttle didn’t run on the weekend.   During our stay we were told one of the shuttle drivers has a taxi on the weekend.   I’m not sure whether or not he picked us up on our return as we booked a taxi back to the airport through reception.   The driver pulled up in a car/van and then told us it was a fixed rate of $32.00 to the airport which was expensive.    I would give this hotel 4 stars for the accommodation and would stay here again though not on the weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r448396884-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>448396884</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Highs &amp; Lows - Beware! NO SHUTTLE ON WEEKENDS!! $25+ cab each way...</t>
+  </si>
+  <si>
+    <t>We booked this hotel through Priceline because it was near the DFW Airport and we had a layover. The hotel looked great cosmetically - had been recently renovated, nicely contemporary. Our room (1 queen) was spacious, with a nice full size kitchenette and EXCELLENT lighting. Sink/mirror were stellar, bathroom looked nice with glass shower doors, but floor was warped and door was difficult to close. Bed was pretty comfortable, though a tad on the soft side. Desk chair was a misfit, as it was literally torn up. Cleanliness was okay. Looked clean, but we killed an ant under the bathroom sink and another on the couch. I don't know if it's because we had booked through an online site, but our room (219?) was next to the elevator, in a part of the hallway essentially overlooking the lobby, so there was a potential for lots of noise. We didn't end up  having noise issues, though we did use the white noise feature on the clock. Amenities were very nice for this level hotel. Workout room had decent amount of equipment and all appeared to be in good working order. Breakfast was much better than most - eggs, cheese, excellent condiments, sausage, potatoes, waffles, fruit &amp; cereal. BEWARE! If you're booking this because it looks like a nice DFW Airport hotel, THE SHUTTLE DOESN'T RUN ON WEEKENDS!! When we called from the airport on Sat. to have the shuttle come, we...We booked this hotel through Priceline because it was near the DFW Airport and we had a layover. The hotel looked great cosmetically - had been recently renovated, nicely contemporary. Our room (1 queen) was spacious, with a nice full size kitchenette and EXCELLENT lighting. Sink/mirror were stellar, bathroom looked nice with glass shower doors, but floor was warped and door was difficult to close. Bed was pretty comfortable, though a tad on the soft side. Desk chair was a misfit, as it was literally torn up. Cleanliness was okay. Looked clean, but we killed an ant under the bathroom sink and another on the couch. I don't know if it's because we had booked through an online site, but our room (219?) was next to the elevator, in a part of the hallway essentially overlooking the lobby, so there was a potential for lots of noise. We didn't end up  having noise issues, though we did use the white noise feature on the clock. Amenities were very nice for this level hotel. Workout room had decent amount of equipment and all appeared to be in good working order. Breakfast was much better than most - eggs, cheese, excellent condiments, sausage, potatoes, waffles, fruit &amp; cereal. BEWARE! If you're booking this because it looks like a nice DFW Airport hotel, THE SHUTTLE DOESN'T RUN ON WEEKENDS!! When we called from the airport on Sat. to have the shuttle come, we were met with, "Oh... I see you booked this through Priceline. Our shuttle doesn't run on the weekends."  We ended up spending over $50 for a cab to &amp; from the hotel (we left on Sunday) which ended our trip on a sour note. We certainly would have selected another hotel had we known. The front desk said it was Priceline's fault for not making that clear, but I had looked at StayBridge's site, and it's very deceptively worded. They state in their "Amenities" section: "Guests can get around on the complimentary shuttle, which operates within 5.00 mi." They state the DFW Airport is 4.2 miles. Under bullet point amenities they say " Free airport transportation" and in another bullet, "Free area shuttle." The fact that the shuttle doesn't run on weekends isn't on their site AT ALL. The only way they may claim we should have known is the bottom section, under "Business &amp; Other Amenities" where they state, " A roundtrip airport shuttle is complimentary at scheduled times." Again, no mention that it doesn't run on weekends, and after seeing the other 3 references to free shuttle - specifically to/from the airport, I  stopped reading because I found what I was specifically looking for - a free shuttle. If it weren't for the shuttle issue, I would have probably given them a 4, but when you're specifically trying to plan a trip and stay on budget and get  hit with an unexpected cost like that, it's infuriating - esp. when there were so many other great choices we could have made... Felt deceived, and as though we had 2nd class service due to not booking directly with StayBridge...MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>We booked this hotel through Priceline because it was near the DFW Airport and we had a layover. The hotel looked great cosmetically - had been recently renovated, nicely contemporary. Our room (1 queen) was spacious, with a nice full size kitchenette and EXCELLENT lighting. Sink/mirror were stellar, bathroom looked nice with glass shower doors, but floor was warped and door was difficult to close. Bed was pretty comfortable, though a tad on the soft side. Desk chair was a misfit, as it was literally torn up. Cleanliness was okay. Looked clean, but we killed an ant under the bathroom sink and another on the couch. I don't know if it's because we had booked through an online site, but our room (219?) was next to the elevator, in a part of the hallway essentially overlooking the lobby, so there was a potential for lots of noise. We didn't end up  having noise issues, though we did use the white noise feature on the clock. Amenities were very nice for this level hotel. Workout room had decent amount of equipment and all appeared to be in good working order. Breakfast was much better than most - eggs, cheese, excellent condiments, sausage, potatoes, waffles, fruit &amp; cereal. BEWARE! If you're booking this because it looks like a nice DFW Airport hotel, THE SHUTTLE DOESN'T RUN ON WEEKENDS!! When we called from the airport on Sat. to have the shuttle come, we...We booked this hotel through Priceline because it was near the DFW Airport and we had a layover. The hotel looked great cosmetically - had been recently renovated, nicely contemporary. Our room (1 queen) was spacious, with a nice full size kitchenette and EXCELLENT lighting. Sink/mirror were stellar, bathroom looked nice with glass shower doors, but floor was warped and door was difficult to close. Bed was pretty comfortable, though a tad on the soft side. Desk chair was a misfit, as it was literally torn up. Cleanliness was okay. Looked clean, but we killed an ant under the bathroom sink and another on the couch. I don't know if it's because we had booked through an online site, but our room (219?) was next to the elevator, in a part of the hallway essentially overlooking the lobby, so there was a potential for lots of noise. We didn't end up  having noise issues, though we did use the white noise feature on the clock. Amenities were very nice for this level hotel. Workout room had decent amount of equipment and all appeared to be in good working order. Breakfast was much better than most - eggs, cheese, excellent condiments, sausage, potatoes, waffles, fruit &amp; cereal. BEWARE! If you're booking this because it looks like a nice DFW Airport hotel, THE SHUTTLE DOESN'T RUN ON WEEKENDS!! When we called from the airport on Sat. to have the shuttle come, we were met with, "Oh... I see you booked this through Priceline. Our shuttle doesn't run on the weekends."  We ended up spending over $50 for a cab to &amp; from the hotel (we left on Sunday) which ended our trip on a sour note. We certainly would have selected another hotel had we known. The front desk said it was Priceline's fault for not making that clear, but I had looked at StayBridge's site, and it's very deceptively worded. They state in their "Amenities" section: "Guests can get around on the complimentary shuttle, which operates within 5.00 mi." They state the DFW Airport is 4.2 miles. Under bullet point amenities they say " Free airport transportation" and in another bullet, "Free area shuttle." The fact that the shuttle doesn't run on weekends isn't on their site AT ALL. The only way they may claim we should have known is the bottom section, under "Business &amp; Other Amenities" where they state, " A roundtrip airport shuttle is complimentary at scheduled times." Again, no mention that it doesn't run on weekends, and after seeing the other 3 references to free shuttle - specifically to/from the airport, I  stopped reading because I found what I was specifically looking for - a free shuttle. If it weren't for the shuttle issue, I would have probably given them a 4, but when you're specifically trying to plan a trip and stay on budget and get  hit with an unexpected cost like that, it's infuriating - esp. when there were so many other great choices we could have made... Felt deceived, and as though we had 2nd class service due to not booking directly with StayBridge...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r440488638-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>440488638</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel for quick business trip</t>
+  </si>
+  <si>
+    <t>Decent hotel for quick business trip. The hotel is located right off the freeway, close to lots of shopping and restaurants. Pros - good, hot breakfastPoolEvening activities, including some happy hours during the weekShuttle ServiceRooms have kitchenettesCons - Wifi really slowShuttle service requires 24 hour noticeMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Decent hotel for quick business trip. The hotel is located right off the freeway, close to lots of shopping and restaurants. Pros - good, hot breakfastPoolEvening activities, including some happy hours during the weekShuttle ServiceRooms have kitchenettesCons - Wifi really slowShuttle service requires 24 hour noticeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r438640826-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>438640826</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Good value for the price - has issues</t>
+  </si>
+  <si>
+    <t>Overall the hotel was a decent place to stay. The bed was a little soft for me but I know everyone is different. The issue was the business chair in the room was so disgusting that I could not use it. I took a picture. The arms and and back had the material missing and ripped off. The other issue was there was a lot of black mold in the shower. Surprising since everything else looked clean and up kept.  Hopefully the management will see this and take action. The employees I encountered were all helpful and friendly.  The kitchen in the room was well stocked and clean. TV and AC all worked great. Windows had 3 levels of curtains that made for a good night sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall the hotel was a decent place to stay. The bed was a little soft for me but I know everyone is different. The issue was the business chair in the room was so disgusting that I could not use it. I took a picture. The arms and and back had the material missing and ripped off. The other issue was there was a lot of black mold in the shower. Surprising since everything else looked clean and up kept.  Hopefully the management will see this and take action. The employees I encountered were all helpful and friendly.  The kitchen in the room was well stocked and clean. TV and AC all worked great. Windows had 3 levels of curtains that made for a good night sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r395961807-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>395961807</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near airport </t>
+  </si>
+  <si>
+    <t>Located in a very nice area of Irving DFW Airport, Walmart, movie theater, and many restaurants located nearby which is a plus. The lobby is beautiful, and front desk staff was very friendly. I had a queen studio suite that was amazing only thing I didn't like was I didn't have a bathtub. Hotel offers wifi and free breakfast which was a plus. The hotel offered a gym, and free washers and dryers that I utilized the night before my flight back home. My only complaint is that the walls are sort of thin I could hear my next door neighbor snoring and I could hear the kids running up and down the hallway and slamming of the doors.The hotel offers free shuttle to the airport which I also utilized which was a plus. Next time I'm in town I will definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Located in a very nice area of Irving DFW Airport, Walmart, movie theater, and many restaurants located nearby which is a plus. The lobby is beautiful, and front desk staff was very friendly. I had a queen studio suite that was amazing only thing I didn't like was I didn't have a bathtub. Hotel offers wifi and free breakfast which was a plus. The hotel offered a gym, and free washers and dryers that I utilized the night before my flight back home. My only complaint is that the walls are sort of thin I could hear my next door neighbor snoring and I could hear the kids running up and down the hallway and slamming of the doors.The hotel offers free shuttle to the airport which I also utilized which was a plus. Next time I'm in town I will definitely be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r393965639-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>393965639</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Good Location, Nice Meeting Rooms</t>
+  </si>
+  <si>
+    <t>While in Irving spent time at the StayBridge Suites.  Staff was very polite, helpful and friendly.  There is an interesting set of meeting rooms here (design) and the location is just across the street from a mini mall with several good restaurants. The property has a unique theater room, super comfortable chairs.  Breakfast area clean and organized.Dr. Marc PS 63:7</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r393377071-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>393377071</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Weekend</t>
+  </si>
+  <si>
+    <t>Clean hotel in quiet area.  Close to restaraunts and DFW airport.  Nice breakfast buffet.  If you haven't tried a StayBridge property, you should.  Very comfortable rooms.  Nice pool area, wasn't very busy during our stay.  Friendly staff were helpful and ready to help when needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r385309045-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>385309045</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Great at-home experience, friendly staff, ample complimentary buffet</t>
+  </si>
+  <si>
+    <t>I stayed here as I had stayed several times by the Grapevine Mills Mall, and wanted to stay closer to this area.For the same price as a Grapevine Hotel this suite offered a kitchenette with fridge and small living room.  Great option for long stays as you can save money by making/reheating food.Also very close to several restaurants and a Wallmary, Best Buy, Home Depot and Fry's.The complimentary breakfast buffet was very complete, more than I expected as it looks smaller than other hotels I have stayed at, with several options, and even on-the-spot waffle iron!They offer complimentary dinner &amp; happy hour from Monday to Wednesday!Highly recommended.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r384095137-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>384095137</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>The location is great. Right off of the 635. It is surrounded by retail,restaurants and shopping.Because of the area, no room would be a bad room. The rooms are suites; frig, sink, dishes..etc. The property has a small basketball court of off the back of the hotel with a pool. I used it for a weekend away/conference and honestly I could have gone with either use for this location. There is a conference room, complimentary breakfast and most importantly dog friendly with a non-refundable deposit. Oh, I travel ALOT...The water pressure in this hotel is second to none! It is also about ten minutes from the now last year for Valley Ranch. Not a Cowboy fan however it is a House of Legends....ANYWAYI would definitely stay here again and I would recommend it for either business travel or a quick stop hotel in a good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is great. Right off of the 635. It is surrounded by retail,restaurants and shopping.Because of the area, no room would be a bad room. The rooms are suites; frig, sink, dishes..etc. The property has a small basketball court of off the back of the hotel with a pool. I used it for a weekend away/conference and honestly I could have gone with either use for this location. There is a conference room, complimentary breakfast and most importantly dog friendly with a non-refundable deposit. Oh, I travel ALOT...The water pressure in this hotel is second to none! It is also about ten minutes from the now last year for Valley Ranch. Not a Cowboy fan however it is a House of Legends....ANYWAYI would definitely stay here again and I would recommend it for either business travel or a quick stop hotel in a good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r375602528-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>375602528</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Hotel was in a great location, near a few chain restaurants and right down the road from a Wal-Mart. When we arrived, only one of our two rooms was ready, but the staff allowed us to check in to that room while we waited for the other. It was ready within the hour.Staff was super helpful in answering my questions. The rooms are spacious and comfortable. Everything was good. I would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r336270415-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>336270415</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>I have stayed here on a couple of different occasions, one of which was several weeks and it was great each time. Its very typical of other Staybridge hotel I've stayed at, nothing I could ask for to be any better.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r315229792-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>315229792</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>One Of The Best Stays In a Long Time</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights over the labor Day holiday. Room was a upgrade room from a one-bedroom suite to a 2 bedroom suite on AAA rate (which was a rare but pleasant surprise) Both rooms were clean and spacious and each bedroom and the living room area had their own TV's. Kitchen area was nice had had a decent size fridge. Beds and pillows were very clean and room a very quiet. Hotel has a nice size outdoor swimming pool that was larger than most comparable hotel swimming, something my kids enjoyed very much. Hotel is in a suburban area next to a good size shopping center that was very convenient with lots of places to shop and eat. Very close to DFW Airport, though airplane noise was not noticeable. Staff was very friendly and helpful. Pretty good continental breakfast. Would seriously consider staying again in the future. Thank you for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights over the labor Day holiday. Room was a upgrade room from a one-bedroom suite to a 2 bedroom suite on AAA rate (which was a rare but pleasant surprise) Both rooms were clean and spacious and each bedroom and the living room area had their own TV's. Kitchen area was nice had had a decent size fridge. Beds and pillows were very clean and room a very quiet. Hotel has a nice size outdoor swimming pool that was larger than most comparable hotel swimming, something my kids enjoyed very much. Hotel is in a suburban area next to a good size shopping center that was very convenient with lots of places to shop and eat. Very close to DFW Airport, though airplane noise was not noticeable. Staff was very friendly and helpful. Pretty good continental breakfast. Would seriously consider staying again in the future. Thank you for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r315004043-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>315004043</t>
+  </si>
+  <si>
+    <t>Not sure why this is still getting such high reviews</t>
+  </si>
+  <si>
+    <t>I stayed here strictly on feedback left and ratings. I assumed it was going to be a great hotel. I will say this place was average and is in need of some TLC!!! It was clean, which is the most important in my mind.
+Staff - VERY friendly. Everyone here was super nice and a pleasure to work with.
+Arrival - The carpeting behind the front desk is a wreck. It's poor appearance started to make me worry about my room!!! If the rooms were to be a sign of the poor state of the horribly dirty, bunched up carpeting I was going to be in trouble.
+Room - We had a 2 bedroom suite. The overall room size for a 2 bedroom was quite small. The bedrooms were ample, but the living room was tiny!!! (Smaller than any other 2 bedroom I've stayed in).  I gave this hotel a 3/5 because the rooms are a little worn. Trim peeling from the floor, The door frame around the door was completely separated from the wall, and the 'hard wood (really tile)' floor was bumped up from the sub floor. (When you walked, you could feel where the tile came unglued and would bounce' up and down.  The finish on the tiles had worn off, and parts were smooth, while other parts sticky.  The doors to the bathrooms had weird 'spray' marks on them, showing they hadn't been wiped down in...I stayed here strictly on feedback left and ratings. I assumed it was going to be a great hotel. I will say this place was average and is in need of some TLC!!! It was clean, which is the most important in my mind.Staff - VERY friendly. Everyone here was super nice and a pleasure to work with.Arrival - The carpeting behind the front desk is a wreck. It's poor appearance started to make me worry about my room!!! If the rooms were to be a sign of the poor state of the horribly dirty, bunched up carpeting I was going to be in trouble.Room - We had a 2 bedroom suite. The overall room size for a 2 bedroom was quite small. The bedrooms were ample, but the living room was tiny!!! (Smaller than any other 2 bedroom I've stayed in).  I gave this hotel a 3/5 because the rooms are a little worn. Trim peeling from the floor, The door frame around the door was completely separated from the wall, and the 'hard wood (really tile)' floor was bumped up from the sub floor. (When you walked, you could feel where the tile came unglued and would bounce' up and down.  The finish on the tiles had worn off, and parts were smooth, while other parts sticky.  The doors to the bathrooms had weird 'spray' marks on them, showing they hadn't been wiped down in a while.. Or if they were, someone sprayed something on the glass inserts that will never come off.  The beds were mediocre and quite uncomfortable.  Over all, these rooms are in need of remodel.  I will say, the hotel was clean, so that was good from that point.Food - The free breakfast was great! While not vast, it offered many items (some hot, some cold) which was a PLUS!!Location - Nice and quiet suburb area. You didn't realize you were near the airport, and were definitely located in a NICE area.This hotel was convenient for our needs. I wouldn't say that I would stay here again however.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here strictly on feedback left and ratings. I assumed it was going to be a great hotel. I will say this place was average and is in need of some TLC!!! It was clean, which is the most important in my mind.
+Staff - VERY friendly. Everyone here was super nice and a pleasure to work with.
+Arrival - The carpeting behind the front desk is a wreck. It's poor appearance started to make me worry about my room!!! If the rooms were to be a sign of the poor state of the horribly dirty, bunched up carpeting I was going to be in trouble.
+Room - We had a 2 bedroom suite. The overall room size for a 2 bedroom was quite small. The bedrooms were ample, but the living room was tiny!!! (Smaller than any other 2 bedroom I've stayed in).  I gave this hotel a 3/5 because the rooms are a little worn. Trim peeling from the floor, The door frame around the door was completely separated from the wall, and the 'hard wood (really tile)' floor was bumped up from the sub floor. (When you walked, you could feel where the tile came unglued and would bounce' up and down.  The finish on the tiles had worn off, and parts were smooth, while other parts sticky.  The doors to the bathrooms had weird 'spray' marks on them, showing they hadn't been wiped down in...I stayed here strictly on feedback left and ratings. I assumed it was going to be a great hotel. I will say this place was average and is in need of some TLC!!! It was clean, which is the most important in my mind.Staff - VERY friendly. Everyone here was super nice and a pleasure to work with.Arrival - The carpeting behind the front desk is a wreck. It's poor appearance started to make me worry about my room!!! If the rooms were to be a sign of the poor state of the horribly dirty, bunched up carpeting I was going to be in trouble.Room - We had a 2 bedroom suite. The overall room size for a 2 bedroom was quite small. The bedrooms were ample, but the living room was tiny!!! (Smaller than any other 2 bedroom I've stayed in).  I gave this hotel a 3/5 because the rooms are a little worn. Trim peeling from the floor, The door frame around the door was completely separated from the wall, and the 'hard wood (really tile)' floor was bumped up from the sub floor. (When you walked, you could feel where the tile came unglued and would bounce' up and down.  The finish on the tiles had worn off, and parts were smooth, while other parts sticky.  The doors to the bathrooms had weird 'spray' marks on them, showing they hadn't been wiped down in a while.. Or if they were, someone sprayed something on the glass inserts that will never come off.  The beds were mediocre and quite uncomfortable.  Over all, these rooms are in need of remodel.  I will say, the hotel was clean, so that was good from that point.Food - The free breakfast was great! While not vast, it offered many items (some hot, some cold) which was a PLUS!!Location - Nice and quiet suburb area. You didn't realize you were near the airport, and were definitely located in a NICE area.This hotel was convenient for our needs. I wouldn't say that I would stay here again however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r293757425-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>293757425</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Place to Stay!!</t>
+  </si>
+  <si>
+    <t>I recently stayed here while visiting family in the area. The hotel has a beautiful atmosphere and the room was great. We had a kitchenette with everything we needed, work desk, sofa bed, TV, comfy bed, and great bathroom area. Front desk personnel were very friendly and accommodating.The breakfast offered daily was great too! No complaints at all. I will definitely stay here again for our next visit.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r291873721-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>291873721</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Good comforts of home.</t>
+  </si>
+  <si>
+    <t>After a three week guided tour it was nice to relax for five days at the Staybridge suites. We were pleasantly surprised to have free laundry facilities and appreciated the good breakfasts every morning. Three out of the five days we stayed there were even a free social evenings with great food supplied as well. The shuttle to the Grapevine Mills shopping centre and the airport was very welcome too.The only downside was that we were on the lowest level right opposite the meeting rooms, so the noise was loud at times. We had originally booked a king size suite and on our arrival we were given a queen room. We mentioned it the next morning and were moved into the room we booked. It just was a shame it was opposite the meeting rooms. The staff were fantastic and very friendly. Would definitely highly recommend!!MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded July 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2015</t>
+  </si>
+  <si>
+    <t>After a three week guided tour it was nice to relax for five days at the Staybridge suites. We were pleasantly surprised to have free laundry facilities and appreciated the good breakfasts every morning. Three out of the five days we stayed there were even a free social evenings with great food supplied as well. The shuttle to the Grapevine Mills shopping centre and the airport was very welcome too.The only downside was that we were on the lowest level right opposite the meeting rooms, so the noise was loud at times. We had originally booked a king size suite and on our arrival we were given a queen room. We mentioned it the next morning and were moved into the room we booked. It just was a shame it was opposite the meeting rooms. The staff were fantastic and very friendly. Would definitely highly recommend!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r287711143-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>287711143</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>A good nights stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights after booking online through the IHG website.  We booked a King room for a Wednesday and Thursday nights stay however upon arrival we were told that our "type" of room was unavailable and we were upgraded to a very nice two bedroom/two bath suite.  Even though we didn't use the second bedroom it was very nice to have the second bedroom.  The room(s) were well appointed with a mini kitchen with full size refrigerator, coffee maker, sink and microwave.  The breakfast was above average for the pre-cooked hotel norm.  The only downfall/ negative that I can say about this property is that apparently this was not originally a Staybridge Suites.  The halls are terribly narrow and the elevator did not appear to be air conditioned.  It smelled of sweaty kids.  Overall a nice place which we will stay at again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights after booking online through the IHG website.  We booked a King room for a Wednesday and Thursday nights stay however upon arrival we were told that our "type" of room was unavailable and we were upgraded to a very nice two bedroom/two bath suite.  Even though we didn't use the second bedroom it was very nice to have the second bedroom.  The room(s) were well appointed with a mini kitchen with full size refrigerator, coffee maker, sink and microwave.  The breakfast was above average for the pre-cooked hotel norm.  The only downfall/ negative that I can say about this property is that apparently this was not originally a Staybridge Suites.  The halls are terribly narrow and the elevator did not appear to be air conditioned.  It smelled of sweaty kids.  Overall a nice place which we will stay at again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r252323686-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>252323686</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Love it!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 3 nights.  The suite was clean and well appointed.  There was a fridge, stovetop, and microwave.  Dishes and utensils were also included. They even had wine glasses in the room. Breakfast and the light dinner was both okay.  Overall, it was a very nice hotel and the location is great.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r251973536-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>251973536</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Great Service, Good rooms</t>
+  </si>
+  <si>
+    <t>I spent a week here on business.  All the employees were great, Juan and Sweta were a huge help.  The shuttle service to/from the airport was awesome!!!  This place is close to several shops and restaurants.  Several evenings, they have complimentary dinners.  Free dinner and drinks(alcohol included), which is amazing to me.  I have never seen that.  The food was great, limited selection, but great nonetheless.  The rooms were spacious and clean.  The finishing touches(caulking &amp; tile work) were subpar.  But overall, a great experience.  I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>I spent a week here on business.  All the employees were great, Juan and Sweta were a huge help.  The shuttle service to/from the airport was awesome!!!  This place is close to several shops and restaurants.  Several evenings, they have complimentary dinners.  Free dinner and drinks(alcohol included), which is amazing to me.  I have never seen that.  The food was great, limited selection, but great nonetheless.  The rooms were spacious and clean.  The finishing touches(caulking &amp; tile work) were subpar.  But overall, a great experience.  I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r242556115-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>242556115</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was great! The staff were very friendly and the rooms have a lot of space. It feels very home-y. It was nice to have more than just a room with a bed and two chairs it in! The kitchenette was nice to have, even if we did not get a chance to use it! Nice little living room, bedroom, bathroom. Shower had great water pressure and the bed was very comfortable. They had a nice variety for breakfast. Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was great! The staff were very friendly and the rooms have a lot of space. It feels very home-y. It was nice to have more than just a room with a bed and two chairs it in! The kitchenette was nice to have, even if we did not get a chance to use it! Nice little living room, bedroom, bathroom. Shower had great water pressure and the bed was very comfortable. They had a nice variety for breakfast. Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r234217817-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>234217817</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Convenient for DFW!</t>
+  </si>
+  <si>
+    <t>We arrived before our check-in time  and the staff was very welcoming. The facility and room were very clean and well maintained. We both slept soundly and enjoyed the cooked breakfast! I particularly embodied the Wolfgang Puck coffee! Should we find ourselves in the Dallas area again, we would certainly stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2014</t>
+  </si>
+  <si>
+    <t>We arrived before our check-in time  and the staff was very welcoming. The facility and room were very clean and well maintained. We both slept soundly and enjoyed the cooked breakfast! I particularly embodied the Wolfgang Puck coffee! Should we find ourselves in the Dallas area again, we would certainly stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r234137397-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>234137397</t>
+  </si>
+  <si>
+    <t>Excellent staff and property</t>
+  </si>
+  <si>
+    <t>arrived at the hotel around midnight and front desk clerk was very courteous and helpful. hotel was immaculate and has a wonderful pool and spa that I had to myself. spent two nights here for business travel and was able to rest well and find restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2014</t>
+  </si>
+  <si>
+    <t>arrived at the hotel around midnight and front desk clerk was very courteous and helpful. hotel was immaculate and has a wonderful pool and spa that I had to myself. spent two nights here for business travel and was able to rest well and find restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r229475172-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>229475172</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Overall good stay, with little hateful moments</t>
+  </si>
+  <si>
+    <t>The hotel was overall ok with its aim to bring some perks to its customers. They offer a social evening gathering with free snacks and drinks 2 or 3 times as week. It also features a self service free laundrette, free movies to borrow and a pantry from which to buy snacks or items you may need during your stay. There is also a free shuttle service running the 3km or so round the hotel.
+The receptionist who was there for most of our stay is not very welcoming and smiling. It gives an awkward feeling of "leave me alone" from her.
+Apart from that, we were also "ripped" by the taxidriver which the hotel called for us - no meter and not very friendly neither. He ripped us 30USD to bring us to a mall 5km away, maximum! He lied that it was the normal rate to go to the airport area, but going to a mall should not count airport charges for example. We complained to the hotel when coming back, and called our "own" taxi on the next trip.
+We also encountered noise issues with the room assigned to us - annex to the elevators! Very inconvenient with our one-year old but the next day they readily switched us to another room when we raised the issue. 
+Breakfast is ok, but nothing to call home about. Room was clean and kitchenette has all amenities, but is not...The hotel was overall ok with its aim to bring some perks to its customers. They offer a social evening gathering with free snacks and drinks 2 or 3 times as week. It also features a self service free laundrette, free movies to borrow and a pantry from which to buy snacks or items you may need during your stay. There is also a free shuttle service running the 3km or so round the hotel.The receptionist who was there for most of our stay is not very welcoming and smiling. It gives an awkward feeling of "leave me alone" from her.Apart from that, we were also "ripped" by the taxidriver which the hotel called for us - no meter and not very friendly neither. He ripped us 30USD to bring us to a mall 5km away, maximum! He lied that it was the normal rate to go to the airport area, but going to a mall should not count airport charges for example. We complained to the hotel when coming back, and called our "own" taxi on the next trip.We also encountered noise issues with the room assigned to us - annex to the elevators! Very inconvenient with our one-year old but the next day they readily switched us to another room when we raised the issue. Breakfast is ok, but nothing to call home about. Room was clean and kitchenette has all amenities, but is not cleaned over the week-end unless explicitly requested.It's not really an "airport" hotel as its name suggests.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was overall ok with its aim to bring some perks to its customers. They offer a social evening gathering with free snacks and drinks 2 or 3 times as week. It also features a self service free laundrette, free movies to borrow and a pantry from which to buy snacks or items you may need during your stay. There is also a free shuttle service running the 3km or so round the hotel.
+The receptionist who was there for most of our stay is not very welcoming and smiling. It gives an awkward feeling of "leave me alone" from her.
+Apart from that, we were also "ripped" by the taxidriver which the hotel called for us - no meter and not very friendly neither. He ripped us 30USD to bring us to a mall 5km away, maximum! He lied that it was the normal rate to go to the airport area, but going to a mall should not count airport charges for example. We complained to the hotel when coming back, and called our "own" taxi on the next trip.
+We also encountered noise issues with the room assigned to us - annex to the elevators! Very inconvenient with our one-year old but the next day they readily switched us to another room when we raised the issue. 
+Breakfast is ok, but nothing to call home about. Room was clean and kitchenette has all amenities, but is not...The hotel was overall ok with its aim to bring some perks to its customers. They offer a social evening gathering with free snacks and drinks 2 or 3 times as week. It also features a self service free laundrette, free movies to borrow and a pantry from which to buy snacks or items you may need during your stay. There is also a free shuttle service running the 3km or so round the hotel.The receptionist who was there for most of our stay is not very welcoming and smiling. It gives an awkward feeling of "leave me alone" from her.Apart from that, we were also "ripped" by the taxidriver which the hotel called for us - no meter and not very friendly neither. He ripped us 30USD to bring us to a mall 5km away, maximum! He lied that it was the normal rate to go to the airport area, but going to a mall should not count airport charges for example. We complained to the hotel when coming back, and called our "own" taxi on the next trip.We also encountered noise issues with the room assigned to us - annex to the elevators! Very inconvenient with our one-year old but the next day they readily switched us to another room when we raised the issue. Breakfast is ok, but nothing to call home about. Room was clean and kitchenette has all amenities, but is not cleaned over the week-end unless explicitly requested.It's not really an "airport" hotel as its name suggests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r222523261-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>222523261</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise!</t>
+  </si>
+  <si>
+    <t>What drew us to this hotel was location/price/amenities. But as my daughter says it "this hotel was AMAZING". Very nice, clean room. The pool was very nice. They have a barbecue pit right by the pool- that made the trip for us. The movie room was great- a few kids decided to pick a movie, share that time and make new friends :)The staff was awesome and do helpful. There are even little extras like a library and movies available at the front desk. More than I expected and that's always a plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2014</t>
+  </si>
+  <si>
+    <t>What drew us to this hotel was location/price/amenities. But as my daughter says it "this hotel was AMAZING". Very nice, clean room. The pool was very nice. They have a barbecue pit right by the pool- that made the trip for us. The movie room was great- a few kids decided to pick a movie, share that time and make new friends :)The staff was awesome and do helpful. There are even little extras like a library and movies available at the front desk. More than I expected and that's always a plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r218109689-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>218109689</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>A quick trip</t>
+  </si>
+  <si>
+    <t>Many thanks to the hotel for getting us a room before the normal check in time. We had slept in the car the night before the flight to dallas and didn't except to have a problem when we got there, but it was hot and my husbands meeting was at 12:30. Thankfully they got us in so we could get a shower. It was close to the airport, the hotel was clean. Breakfast was nice and the pool refreshing and clean. Many thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Many thanks to the hotel for getting us a room before the normal check in time. We had slept in the car the night before the flight to dallas and didn't except to have a problem when we got there, but it was hot and my husbands meeting was at 12:30. Thankfully they got us in so we could get a shower. It was close to the airport, the hotel was clean. Breakfast was nice and the pool refreshing and clean. Many thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r215940120-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>215940120</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>This hotel has been a very nice surprise, great rooms, cinema,nice breakfast corner, i couldn't ask for more. The only problem i found was the air conditioning that didn't work at the reception. I would suggest the staff to know more about tourism in Dallas and Fort Worth because tourists like us sometime need a help and it' s not good to hear at the reception:"i don't know, i'm not from here."MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>This hotel has been a very nice surprise, great rooms, cinema,nice breakfast corner, i couldn't ask for more. The only problem i found was the air conditioning that didn't work at the reception. I would suggest the staff to know more about tourism in Dallas and Fort Worth because tourists like us sometime need a help and it' s not good to hear at the reception:"i don't know, i'm not from here."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r209466553-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>209466553</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Hotel Recommended</t>
+  </si>
+  <si>
+    <t>First time staying at a IHG Staybridge, I was pretty happy with my one nighter and will definitely consider the chain for future business trips. Rooms were large with a full kitchen AND dishwasher. Bathroom was clean. Staff was friendly and helpful. I would recommend this hotel as a place to stay in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded June 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2014</t>
+  </si>
+  <si>
+    <t>First time staying at a IHG Staybridge, I was pretty happy with my one nighter and will definitely consider the chain for future business trips. Rooms were large with a full kitchen AND dishwasher. Bathroom was clean. Staff was friendly and helpful. I would recommend this hotel as a place to stay in Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r209133977-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>209133977</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Very helpfull staff!</t>
+  </si>
+  <si>
+    <t>The staff has been super helpful, I have been staying here for the last several weeks on business, It's location is very convenient, easy access to shopping and restaurants. Plus it is much more quieter than staying close to the airport.  Plus I cannot say enough about the helpfulness of the staff, the front desk clerks have went out of their way on multiple occasions to make sure I got what I needed and they have been a pleasure to work with when making advance reservations.The rooms and beds are much more comfortable than the place I had been staying at.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff has been super helpful, I have been staying here for the last several weeks on business, It's location is very convenient, easy access to shopping and restaurants. Plus it is much more quieter than staying close to the airport.  Plus I cannot say enough about the helpfulness of the staff, the front desk clerks have went out of their way on multiple occasions to make sure I got what I needed and they have been a pleasure to work with when making advance reservations.The rooms and beds are much more comfortable than the place I had been staying at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r207895035-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>207895035</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Surprising Amenities but some weaknesses</t>
+  </si>
+  <si>
+    <t>We visited the DFW area on a shopping trip and picked this hotel for the many amenities.  
+My family enjoyed the full size fridge, microwave and cooktop for preparing an evening snack.
+This is the first hotel I have stayed in that had complementary laundry machines.  It was a great benefit that we really enjoyed.  
+Our kids enjoyed the large movie theater.  It was a nice place to relax.
+The pool area is nicely landscape with a nice gazebo.  There was also a basketball court that was a fun place to let go of some energy.
+Our bedroom with two double beds was quite tight with not much room to walk around the beds.  The beds were not the most comfortable... I would wake up stiff and happy it was morning.  
+Water pressure in the bathroom was very low.  Maintenance was able to improve it a little, but it was still lower than I would have expected.
+The breakfast and evening reception has quite a lot of selection bu the food quality was poor.  We thought we would have breakfast here but often went elsewhere due to the quality of the food.  Expect prepared food warmed up.
+The staff were not very friendly.  I had to wait at the front desk while the person finished what they were doing on their cell phone.  If you were willing to wait your concern would be addressed but it didn't seem to be...We visited the DFW area on a shopping trip and picked this hotel for the many amenities.  My family enjoyed the full size fridge, microwave and cooktop for preparing an evening snack.This is the first hotel I have stayed in that had complementary laundry machines.  It was a great benefit that we really enjoyed.  Our kids enjoyed the large movie theater.  It was a nice place to relax.The pool area is nicely landscape with a nice gazebo.  There was also a basketball court that was a fun place to let go of some energy.Our bedroom with two double beds was quite tight with not much room to walk around the beds.  The beds were not the most comfortable... I would wake up stiff and happy it was morning.  Water pressure in the bathroom was very low.  Maintenance was able to improve it a little, but it was still lower than I would have expected.The breakfast and evening reception has quite a lot of selection bu the food quality was poor.  We thought we would have breakfast here but often went elsewhere due to the quality of the food.  Expect prepared food warmed up.The staff were not very friendly.  I had to wait at the front desk while the person finished what they were doing on their cell phone.  If you were willing to wait your concern would be addressed but it didn't seem to be their first priority.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>We visited the DFW area on a shopping trip and picked this hotel for the many amenities.  
+My family enjoyed the full size fridge, microwave and cooktop for preparing an evening snack.
+This is the first hotel I have stayed in that had complementary laundry machines.  It was a great benefit that we really enjoyed.  
+Our kids enjoyed the large movie theater.  It was a nice place to relax.
+The pool area is nicely landscape with a nice gazebo.  There was also a basketball court that was a fun place to let go of some energy.
+Our bedroom with two double beds was quite tight with not much room to walk around the beds.  The beds were not the most comfortable... I would wake up stiff and happy it was morning.  
+Water pressure in the bathroom was very low.  Maintenance was able to improve it a little, but it was still lower than I would have expected.
+The breakfast and evening reception has quite a lot of selection bu the food quality was poor.  We thought we would have breakfast here but often went elsewhere due to the quality of the food.  Expect prepared food warmed up.
+The staff were not very friendly.  I had to wait at the front desk while the person finished what they were doing on their cell phone.  If you were willing to wait your concern would be addressed but it didn't seem to be...We visited the DFW area on a shopping trip and picked this hotel for the many amenities.  My family enjoyed the full size fridge, microwave and cooktop for preparing an evening snack.This is the first hotel I have stayed in that had complementary laundry machines.  It was a great benefit that we really enjoyed.  Our kids enjoyed the large movie theater.  It was a nice place to relax.The pool area is nicely landscape with a nice gazebo.  There was also a basketball court that was a fun place to let go of some energy.Our bedroom with two double beds was quite tight with not much room to walk around the beds.  The beds were not the most comfortable... I would wake up stiff and happy it was morning.  Water pressure in the bathroom was very low.  Maintenance was able to improve it a little, but it was still lower than I would have expected.The breakfast and evening reception has quite a lot of selection bu the food quality was poor.  We thought we would have breakfast here but often went elsewhere due to the quality of the food.  Expect prepared food warmed up.The staff were not very friendly.  I had to wait at the front desk while the person finished what they were doing on their cell phone.  If you were willing to wait your concern would be addressed but it didn't seem to be their first priority.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r205652139-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>205652139</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Hits all the points</t>
+  </si>
+  <si>
+    <t>Great stay.  Quiet hotel.  Great front desk service.  Large pool and hot tub.  Next to shopping area with many restaurants.  Easy access from DFW.  Room is large, furniture was new.  All the amenities you want in this style of hotel.  Breakfast has a number of options.  Social hour is welcoming and lasts util 7:30.  Free wifi with decent speed.  Large number of electric sockets in all rooms for all the gadgets.  Room lighting works with color scheme, has dimmers and is relaxing.  Lots of TV channels.  Very good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Great stay.  Quiet hotel.  Great front desk service.  Large pool and hot tub.  Next to shopping area with many restaurants.  Easy access from DFW.  Room is large, furniture was new.  All the amenities you want in this style of hotel.  Breakfast has a number of options.  Social hour is welcoming and lasts util 7:30.  Free wifi with decent speed.  Large number of electric sockets in all rooms for all the gadgets.  Room lighting works with color scheme, has dimmers and is relaxing.  Lots of TV channels.  Very good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r205146609-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>205146609</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Amazing hotel!</t>
+  </si>
+  <si>
+    <t>Great hotel!  Just stayed the weekend for a youth baseball tournament and everything was perfect!  Raquel, at the front desk was awesome!  She created a wonderful first impression at check in and her helpfulness throughout our stay was excellent!  The pool, basketball court, movie room and outdoor patio area were very nice and provided plenty of things for the kids to do!  Will definitely be staying there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Great hotel!  Just stayed the weekend for a youth baseball tournament and everything was perfect!  Raquel, at the front desk was awesome!  She created a wonderful first impression at check in and her helpfulness throughout our stay was excellent!  The pool, basketball court, movie room and outdoor patio area were very nice and provided plenty of things for the kids to do!  Will definitely be staying there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r203637076-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>203637076</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>very confortable</t>
+  </si>
+  <si>
+    <t>great service, large rooms with kitchen, swimming pool and training room. Very clean. little noisy but in the average. typical continental breakfast and laundry is also available for guests. Wi-fi available. i will return for sureMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded May 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2014</t>
+  </si>
+  <si>
+    <t>great service, large rooms with kitchen, swimming pool and training room. Very clean. little noisy but in the average. typical continental breakfast and laundry is also available for guests. Wi-fi available. i will return for sureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r191035134-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>191035134</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>Modern; Clean; SUPERB Service; Fair Price</t>
+  </si>
+  <si>
+    <t>What more could one want.  Rooms done in what I refer to as "Modern" style.  Compact, but very efficient &amp; cozy layout.  Excellent arrangement for the business traveler alone; or, a couple; one night; or, several.  Has become one of our "go-to" places.  Incredible bedding!!!In great area of DFW Metroplex for safety, lots of quality restaurants &amp; shopping.  Superb freeway access.  Shuttle to DFW Airport ( check hours available ).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>What more could one want.  Rooms done in what I refer to as "Modern" style.  Compact, but very efficient &amp; cozy layout.  Excellent arrangement for the business traveler alone; or, a couple; one night; or, several.  Has become one of our "go-to" places.  Incredible bedding!!!In great area of DFW Metroplex for safety, lots of quality restaurants &amp; shopping.  Superb freeway access.  Shuttle to DFW Airport ( check hours available ).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r189342667-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>189342667</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Great meeting hotel with exceptional staff</t>
+  </si>
+  <si>
+    <t>We were conducting a week long professional certification program and wanted to compliment this hotel.    The facilities were in top condition, the staff was responsive in every area and the amenities were ahead of the competition.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded January 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2014</t>
+  </si>
+  <si>
+    <t>We were conducting a week long professional certification program and wanted to compliment this hotel.    The facilities were in top condition, the staff was responsive in every area and the amenities were ahead of the competition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r187704365-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>187704365</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Very Accomodating</t>
+  </si>
+  <si>
+    <t>Planned a four night stay that was extended by inclimitate weather.  The rooms are great.  We had a Queen Studio, it has a queen bed, sofa, 2 footstools Table/Desk, Small Kitchenette, Shower &amp; Toilet with sink in dressing area.  We like these kind of rooms.  Gives you  space to kick back watch a little tv and with the kitchenette you don't have to eat out as often.  This hotel has an evening social Tuesday through Thursday, which includes light meal, desert, beer, wine and soft drinks.  They also serve breakfast daily which includes some kind of egg (scrambled, omlet, etc.), usually a meat, with breads, pastries, boiled eggs, cereals (hot &amp; cold).  The staff here is excellent.  We will return to this hotel when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Planned a four night stay that was extended by inclimitate weather.  The rooms are great.  We had a Queen Studio, it has a queen bed, sofa, 2 footstools Table/Desk, Small Kitchenette, Shower &amp; Toilet with sink in dressing area.  We like these kind of rooms.  Gives you  space to kick back watch a little tv and with the kitchenette you don't have to eat out as often.  This hotel has an evening social Tuesday through Thursday, which includes light meal, desert, beer, wine and soft drinks.  They also serve breakfast daily which includes some kind of egg (scrambled, omlet, etc.), usually a meat, with breads, pastries, boiled eggs, cereals (hot &amp; cold).  The staff here is excellent.  We will return to this hotel when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r183477551-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>183477551</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Great Hospitality</t>
+  </si>
+  <si>
+    <t>I  very impressed with the genuinely caring hospitality that I received from the staff.  Sir Lancelot (Lance) provided great service and was a wealth of information!  My room was spacious, well appointed and clean.  It was very helpful to have a kitchen in my room making my suite feel like "home away from home".  The price is quite affordable and the location is great with many restaurants within walking distance.  The complimentary buffet breakfast that is provided is more than adequate and the complimentary transit to and from the airport is a definite plus.  I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2013</t>
+  </si>
+  <si>
+    <t>I  very impressed with the genuinely caring hospitality that I received from the staff.  Sir Lancelot (Lance) provided great service and was a wealth of information!  My room was spacious, well appointed and clean.  It was very helpful to have a kitchen in my room making my suite feel like "home away from home".  The price is quite affordable and the location is great with many restaurants within walking distance.  The complimentary buffet breakfast that is provided is more than adequate and the complimentary transit to and from the airport is a definite plus.  I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r180060077-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>180060077</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Whole lot of happiness</t>
+  </si>
+  <si>
+    <t>To start it's beside Fry's Electronics, 24 hour Fitness, best buy and so many restaurants walking distance (but there is a shuttle). Shuttle goes 3 miles and to Dfw but not Love Field. But it has movie room with 105" TV, grilling area, breakfast included, managers reception dinner on select weekdays, pool, jacuzzi, 24 hour workout room, FREE laundry, business center, HD cable with free in demand from time warner, full kitchen in room (no oven). Check out leather floors in lobby, crystal chandeliers, fireplace, basketball court and beautiful decor, it's an energy conscious hotel with a card you insert by door and it activates power in room, will certainly be back. Only 10 mins from grapevine mills, 5 mins to Tinseltown movies and Wal mart. Good job guys on a great hotel. Only disappointment was you do not get but half points for your brand from IHG rewards. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>To start it's beside Fry's Electronics, 24 hour Fitness, best buy and so many restaurants walking distance (but there is a shuttle). Shuttle goes 3 miles and to Dfw but not Love Field. But it has movie room with 105" TV, grilling area, breakfast included, managers reception dinner on select weekdays, pool, jacuzzi, 24 hour workout room, FREE laundry, business center, HD cable with free in demand from time warner, full kitchen in room (no oven). Check out leather floors in lobby, crystal chandeliers, fireplace, basketball court and beautiful decor, it's an energy conscious hotel with a card you insert by door and it activates power in room, will certainly be back. Only 10 mins from grapevine mills, 5 mins to Tinseltown movies and Wal mart. Good job guys on a great hotel. Only disappointment was you do not get but half points for your brand from IHG rewards. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r178628991-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>178628991</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>So friendly!</t>
+  </si>
+  <si>
+    <t>I stayed here for a businesses convention and was extremely happy with my entire experience from the moment I was picked up from the airport to my check in my stay and then my departure the staff was exceptionally happy and friendly it made my time here very satisfying the rooms are beautiful and clean I love the little kitchens they have everything you need the socials serve great food and have a fun atmosphere. I am so excited to come back again soon!!MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for a businesses convention and was extremely happy with my entire experience from the moment I was picked up from the airport to my check in my stay and then my departure the staff was exceptionally happy and friendly it made my time here very satisfying the rooms are beautiful and clean I love the little kitchens they have everything you need the socials serve great food and have a fun atmosphere. I am so excited to come back again soon!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r158592917-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>158592917</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Great trip</t>
+  </si>
+  <si>
+    <t>Shopping And Food location was a walking distance to hotel.The staff was very friendly to me. When I needed help the staff quickly assist me.I  will requirement this hotel because I had a great hotel stay. Hope to come back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Shopping And Food location was a walking distance to hotel.The staff was very friendly to me. When I needed help the staff quickly assist me.I  will requirement this hotel because I had a great hotel stay. Hope to come back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r158527868-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>158527868</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Another great Staybridge Suites!</t>
+  </si>
+  <si>
+    <t>Staybridge Suites has become my hotel chain of choice now when travelling on both business and personal trips.  And this property just outside of the DFW airport in Irving, TX did not dissappoint.  The hotel is easy to find and is right off of the highway.  It is located near a number of shops and restaurants if you decide to go out for dinner locally.  Normally I have a studio suite, but this time I had a 1-bedroom king suite, and it was awesome.  The decor is super swank and actually pretty luxurious for the price point.  Everything feels new and updated.  My favorite things about all Staybridge hotels and this one was exactly the same, is that there are plenty of outlets for electronic gadgets (and they are in logical places), and the free wi-fi is super fast.  I found it really easy to get work done and to get a great night sleep.  The bed was super comfy and the shower was really good too.  My only complaint about the room itself is the faucet in the bathroom, while really cool, did not produce enough pressure and it made it hard to shave in the morning!  The free breakfast in the morning is good and a step above most other chain hotel's free breakfasts.  I really enjoyed this stay and will stay here again the next time I am in the DFW area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staybridge Suites has become my hotel chain of choice now when travelling on both business and personal trips.  And this property just outside of the DFW airport in Irving, TX did not dissappoint.  The hotel is easy to find and is right off of the highway.  It is located near a number of shops and restaurants if you decide to go out for dinner locally.  Normally I have a studio suite, but this time I had a 1-bedroom king suite, and it was awesome.  The decor is super swank and actually pretty luxurious for the price point.  Everything feels new and updated.  My favorite things about all Staybridge hotels and this one was exactly the same, is that there are plenty of outlets for electronic gadgets (and they are in logical places), and the free wi-fi is super fast.  I found it really easy to get work done and to get a great night sleep.  The bed was super comfy and the shower was really good too.  My only complaint about the room itself is the faucet in the bathroom, while really cool, did not produce enough pressure and it made it hard to shave in the morning!  The free breakfast in the morning is good and a step above most other chain hotel's free breakfasts.  I really enjoyed this stay and will stay here again the next time I am in the DFW area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r158026732-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>158026732</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Very friendly staff and a good property made my business trip a lot better.  Great style and up to date looks and a Theater room on top of it was all the better.  The social they have mid week is nice, only thing that wasn't on top was the breakfast it left a lot to be desired but it was free and there were a couple of decent items there to choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded April 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2013</t>
+  </si>
+  <si>
+    <t>Very friendly staff and a good property made my business trip a lot better.  Great style and up to date looks and a Theater room on top of it was all the better.  The social they have mid week is nice, only thing that wasn't on top was the breakfast it left a lot to be desired but it was free and there were a couple of decent items there to choose from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r157016948-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>157016948</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Nice rooms with friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here five times last summer. I was able to call and negotiate a discount rate to save my company some money on travel expenses. They were able to accommodate my extra bicycles and the staff where very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I stayed here five times last summer. I was able to call and negotiate a discount rate to save my company some money on travel expenses. They were able to accommodate my extra bicycles and the staff where very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r155278425-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>155278425</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Nice location for long term stays</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for nearly six months while on a job assignment.  The hotel staff is very friendly and by the time I left I knew most of them by their first name.  They recently hired a new GM and she is really making some good changes. It may seem little, but she fixed a washing machine that had been out for several months during my stay.  She also had equipment in the fitness room repaired so that it all could be used.  The hotel provides a reception 3 nights a week and even the food quality improved with the new GM.  You can't get much closer to the DFW airport.  I could leave the hotel, park, and take a shuttle and be at my gate in less than 30 minutes.  There are many restaurants within 1-2 miles of the location. You can have fast food or a nicer meal with little driving.  They also provide shuttle service if  you are there without a car.  It is definitely worth checking if you are in the DFW area.The only drawback is that if you are on a lower floor you can hear movement in the rooms above you.  If you have a noisy group you might sleep well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, General Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for nearly six months while on a job assignment.  The hotel staff is very friendly and by the time I left I knew most of them by their first name.  They recently hired a new GM and she is really making some good changes. It may seem little, but she fixed a washing machine that had been out for several months during my stay.  She also had equipment in the fitness room repaired so that it all could be used.  The hotel provides a reception 3 nights a week and even the food quality improved with the new GM.  You can't get much closer to the DFW airport.  I could leave the hotel, park, and take a shuttle and be at my gate in less than 30 minutes.  There are many restaurants within 1-2 miles of the location. You can have fast food or a nicer meal with little driving.  They also provide shuttle service if  you are there without a car.  It is definitely worth checking if you are in the DFW area.The only drawback is that if you are on a lower floor you can hear movement in the rooms above you.  If you have a noisy group you might sleep well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r152445291-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>152445291</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>This hotel helps give all IHG properties a good name!!!</t>
+  </si>
+  <si>
+    <t>I am a Director of Sales at another IHG property in Fayetteville Arkansas and I have to say that I know to always expect the best when staying in other properties like my own but they exceeded those expectations and went above and beyond for me. I travel into that area a lot and I am very happy to say that I have found my hotel of choice. The way the front desk handles issues with guests is impeccable! Our AC was out the first night and we called and they didn’t even hesitate to try to come fix it, give us a fan, and ensure that their engineer would fix it that next morning. After the engineer came up they called to make sure it was fixed and still working properly.MoreShow less</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded February 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2013</t>
+  </si>
+  <si>
+    <t>I am a Director of Sales at another IHG property in Fayetteville Arkansas and I have to say that I know to always expect the best when staying in other properties like my own but they exceeded those expectations and went above and beyond for me. I travel into that area a lot and I am very happy to say that I have found my hotel of choice. The way the front desk handles issues with guests is impeccable! Our AC was out the first night and we called and they didn’t even hesitate to try to come fix it, give us a fan, and ensure that their engineer would fix it that next morning. After the engineer came up they called to make sure it was fixed and still working properly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r147166554-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>147166554</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>Looks great at first site, issues are exposed the longer you are there</t>
+  </si>
+  <si>
+    <t>Was greeted and checked by AJ.  the hotel seems very new, and we were impressed.  Whoever built this hotel skimped on every corner possible.  It is really the definition of lipstick on a pig.  As you walk to the room (getting off the elevator on the top floor), you can feel the floor boards under the carpet coming up.  The furniture looked very cheap and was starting to tear, under what you woudl assume would be normal wear in tear given the newness of the hotel.Walking around in the kitchen and bathroom (seperately) you could feel the tiles starting to come up as you walked around.  It was as if the builder forgot to butter the back of the tiles - they were literally popping up.In the master bath, you could see where caulk was missing (in places) where the tiles hit the bathtub - an easy source for water to get in between the cracks and start to ruin their pretty building.  this hotel could have been AWESOME had the bulider not cut so many corners.  I hate to think what kind of condition it will be in 10 years.  The staff was great, and the morning breakfast was pretty good.  nothing special.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>StaybridgeDFWNorth, Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded December 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2012</t>
+  </si>
+  <si>
+    <t>Was greeted and checked by AJ.  the hotel seems very new, and we were impressed.  Whoever built this hotel skimped on every corner possible.  It is really the definition of lipstick on a pig.  As you walk to the room (getting off the elevator on the top floor), you can feel the floor boards under the carpet coming up.  The furniture looked very cheap and was starting to tear, under what you woudl assume would be normal wear in tear given the newness of the hotel.Walking around in the kitchen and bathroom (seperately) you could feel the tiles starting to come up as you walked around.  It was as if the builder forgot to butter the back of the tiles - they were literally popping up.In the master bath, you could see where caulk was missing (in places) where the tiles hit the bathtub - an easy source for water to get in between the cracks and start to ruin their pretty building.  this hotel could have been AWESOME had the bulider not cut so many corners.  I hate to think what kind of condition it will be in 10 years.  The staff was great, and the morning breakfast was pretty good.  nothing special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r145070901-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>145070901</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>Excellent with a couple of small concerns</t>
+  </si>
+  <si>
+    <t>Arrived very late at night.  Front desk clerk was very helpful in getting me moved to a first-floor room.  Room was lovely and nicely decorated.  HVAC was a little squirrely at first but then settled down.  "High speed" internet was terribly slow; sadly this is my experience at too many properties of every brand.  Breakfast was excellent; some of the best biscuits and gravy I've had at any hotel.  A real "steal" on a Pointsbreak for 5K points.  It is a little further from DFW (and more complicated to get to) than staying at the hotels on the south side of the airport; plan more time to return your rental car and have a good GPS because it can be confusing)MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived very late at night.  Front desk clerk was very helpful in getting me moved to a first-floor room.  Room was lovely and nicely decorated.  HVAC was a little squirrely at first but then settled down.  "High speed" internet was terribly slow; sadly this is my experience at too many properties of every brand.  Breakfast was excellent; some of the best biscuits and gravy I've had at any hotel.  A real "steal" on a Pointsbreak for 5K points.  It is a little further from DFW (and more complicated to get to) than staying at the hotels on the south side of the airport; plan more time to return your rental car and have a good GPS because it can be confusing)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r143488567-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>143488567</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Hidden Gem!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my Best Friend in a Double and we enjoyed having the separate living room and bedroom.  The Mattresses were very comfortable.  I enjoyed the stand up shower as well.  We also had a room over looking pool.  We enjoyed seeing the color changes in the water.  They also have a movie theater on the first floor.  We didn't get a chance to use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my Best Friend in a Double and we enjoyed having the separate living room and bedroom.  The Mattresses were very comfortable.  I enjoyed the stand up shower as well.  We also had a room over looking pool.  We enjoyed seeing the color changes in the water.  They also have a movie theater on the first floor.  We didn't get a chance to use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r138257818-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>138257818</t>
+  </si>
+  <si>
+    <t>08/24/2012</t>
+  </si>
+  <si>
+    <t>Awesome place to hold conference/training</t>
+  </si>
+  <si>
+    <t>I had to take some time to comment on how great the staff was at this Staybridge Suites while my training class was conducted in their "Jupiter Room" for the last Eight weeks!  Especially Rita who works the front desk.  She was very attentive to our needs, and she provided personalized service.  Not only did I feel I could ask for assistance from her but also felt like she was a friend.I would recommend this hotel for anyone who needs a conference or training facility.  Thank you, Logan Geigner</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r129673497-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>129673497</t>
+  </si>
+  <si>
+    <t>05/09/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel but with disappointing service</t>
+  </si>
+  <si>
+    <t>Hotel rooms and property are nice. The breakfast is typical continental and appropriate. During my stay the tv did not work for two days. The first night I called the front desk I was told they'd call the cable company and call me back. I never gotta call back. On my second call 2 hours later, I was told there was nothing they could do. No offer of changing rooms or any other suggestions. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at StayBridge Suites DFW Airport North, responded to this reviewResponded June 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2012</t>
+  </si>
+  <si>
+    <t>Hotel rooms and property are nice. The breakfast is typical continental and appropriate. During my stay the tv did not work for two days. The first night I called the front desk I was told they'd call the cable company and call me back. I never gotta call back. On my second call 2 hours later, I was told there was nothing they could do. No offer of changing rooms or any other suggestions. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r127535165-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>127535165</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>Awesome Property, Little Annoyances....</t>
+  </si>
+  <si>
+    <t>I stayed at the Stabridge at DFW for four days with my husband and daughter in April of 2012....right during the big tornado that hit Dallas....and the hotel was overbooked, so that might influence the review a tad....but I do believe the true test of a hotel is how they handle a crisis and overbooking....
+First off...the positive.  The hotel is REALLY nice.  The lobby and the rooms are furnished beautifully and very well kept.  The hotel pool is nice as well and they furnish towels and nice chairs around the pool so you enjoy it.  The free breakfast is plentiful altho the powdered eggs left something to be desired (the last day we were there they had biscuits and gravy....the best breakfast all week) and to my husband's delight the waffle iron was in the shape of the state of Texas.  Waffles were good....everything was edible but not *great*.  Tuesday, Wed and Thurs night they had a "happy hour" with a dinner type buffet.  GREAT idea for business travelers or people who are trying to keep their costs down.  It too was decent but not great. 
+The decor was beautiful.  The beds were comfortable.  The rooms all have kitchens which is a NICE touch and they are beautiful and well kept.  It's nice to have a fridge and freezer in your room just in case.
+Now on to the annoyances of the hotel.  I called ahead and asked for...I stayed at the Stabridge at DFW for four days with my husband and daughter in April of 2012....right during the big tornado that hit Dallas....and the hotel was overbooked, so that might influence the review a tad....but I do believe the true test of a hotel is how they handle a crisis and overbooking....First off...the positive.  The hotel is REALLY nice.  The lobby and the rooms are furnished beautifully and very well kept.  The hotel pool is nice as well and they furnish towels and nice chairs around the pool so you enjoy it.  The free breakfast is plentiful altho the powdered eggs left something to be desired (the last day we were there they had biscuits and gravy....the best breakfast all week) and to my husband's delight the waffle iron was in the shape of the state of Texas.  Waffles were good....everything was edible but not *great*.  Tuesday, Wed and Thurs night they had a "happy hour" with a dinner type buffet.  GREAT idea for business travelers or people who are trying to keep their costs down.  It too was decent but not great. The decor was beautiful.  The beds were comfortable.  The rooms all have kitchens which is a NICE touch and they are beautiful and well kept.  It's nice to have a fridge and freezer in your room just in case.Now on to the annoyances of the hotel.  I called ahead and asked for a crib which was waiting for us in our room....but they put us in a room with no bath tub.  Now...if I'm asking for a crib I have a small child and usually small children don't take showers.  I asked to change rooms (hoping they'd have a one bedroom, I was willing to pay the upgrade!) but they told me they were completely sold out.  OK.  I get that, but I see a whole stack of reservations that haven't checked in yet and you're telling me you can't switch my room for one with a bathtub???  Nope.  Not over the entire 4 days did they ever have a room with a bathtub available.....which having worked in the industry I know is false.  They just didn't want to clean our room more than once. (they offer "light housekeeping meaning they make your bed and change your towels during the week.  Once every seven days of your stay they will clean your room).  No rooms available to upgrade (and pay the difference) even tho my husband is a regular guest and is a preferred member. Okkkk....Next....the room comes with 3 bath towels and two wash cloths.  Period.  I asked for additional towels and they brought them, but when housekeeping came the next day I got 3 towels and 2 washcloths....we replayed this scenario every single day of our stay.  I finally asked the chick why not just leave 5 towels and she told me that that was against policy, I got 3 towels each day and if I wanted more I had to ask.  Same with my extra blanket.  It got swiped on day 2 and I had to ask for another one.  Really?? It's annoying.  OHHH and banging on the door even tho there is a "do not disturb" sign?? Really????Lastly....we had a tornado while in the hotel.  They do not have a tornado alarm, or any sort of system alerting guests to an impeding disaster.  They expect you to know that there is a tornado coming and come downstairs and ask what to do.  The staff wasn't very helpful and it was my husband who ushered us into the media room (the hotel staff left guests sitting in the lobby area which had an entire wall of windows!!!!!!) to be safe.  WAY not cool.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Stabridge at DFW for four days with my husband and daughter in April of 2012....right during the big tornado that hit Dallas....and the hotel was overbooked, so that might influence the review a tad....but I do believe the true test of a hotel is how they handle a crisis and overbooking....
+First off...the positive.  The hotel is REALLY nice.  The lobby and the rooms are furnished beautifully and very well kept.  The hotel pool is nice as well and they furnish towels and nice chairs around the pool so you enjoy it.  The free breakfast is plentiful altho the powdered eggs left something to be desired (the last day we were there they had biscuits and gravy....the best breakfast all week) and to my husband's delight the waffle iron was in the shape of the state of Texas.  Waffles were good....everything was edible but not *great*.  Tuesday, Wed and Thurs night they had a "happy hour" with a dinner type buffet.  GREAT idea for business travelers or people who are trying to keep their costs down.  It too was decent but not great. 
+The decor was beautiful.  The beds were comfortable.  The rooms all have kitchens which is a NICE touch and they are beautiful and well kept.  It's nice to have a fridge and freezer in your room just in case.
+Now on to the annoyances of the hotel.  I called ahead and asked for...I stayed at the Stabridge at DFW for four days with my husband and daughter in April of 2012....right during the big tornado that hit Dallas....and the hotel was overbooked, so that might influence the review a tad....but I do believe the true test of a hotel is how they handle a crisis and overbooking....First off...the positive.  The hotel is REALLY nice.  The lobby and the rooms are furnished beautifully and very well kept.  The hotel pool is nice as well and they furnish towels and nice chairs around the pool so you enjoy it.  The free breakfast is plentiful altho the powdered eggs left something to be desired (the last day we were there they had biscuits and gravy....the best breakfast all week) and to my husband's delight the waffle iron was in the shape of the state of Texas.  Waffles were good....everything was edible but not *great*.  Tuesday, Wed and Thurs night they had a "happy hour" with a dinner type buffet.  GREAT idea for business travelers or people who are trying to keep their costs down.  It too was decent but not great. The decor was beautiful.  The beds were comfortable.  The rooms all have kitchens which is a NICE touch and they are beautiful and well kept.  It's nice to have a fridge and freezer in your room just in case.Now on to the annoyances of the hotel.  I called ahead and asked for a crib which was waiting for us in our room....but they put us in a room with no bath tub.  Now...if I'm asking for a crib I have a small child and usually small children don't take showers.  I asked to change rooms (hoping they'd have a one bedroom, I was willing to pay the upgrade!) but they told me they were completely sold out.  OK.  I get that, but I see a whole stack of reservations that haven't checked in yet and you're telling me you can't switch my room for one with a bathtub???  Nope.  Not over the entire 4 days did they ever have a room with a bathtub available.....which having worked in the industry I know is false.  They just didn't want to clean our room more than once. (they offer "light housekeeping meaning they make your bed and change your towels during the week.  Once every seven days of your stay they will clean your room).  No rooms available to upgrade (and pay the difference) even tho my husband is a regular guest and is a preferred member. Okkkk....Next....the room comes with 3 bath towels and two wash cloths.  Period.  I asked for additional towels and they brought them, but when housekeeping came the next day I got 3 towels and 2 washcloths....we replayed this scenario every single day of our stay.  I finally asked the chick why not just leave 5 towels and she told me that that was against policy, I got 3 towels each day and if I wanted more I had to ask.  Same with my extra blanket.  It got swiped on day 2 and I had to ask for another one.  Really?? It's annoying.  OHHH and banging on the door even tho there is a "do not disturb" sign?? Really????Lastly....we had a tornado while in the hotel.  They do not have a tornado alarm, or any sort of system alerting guests to an impeding disaster.  They expect you to know that there is a tornado coming and come downstairs and ask what to do.  The staff wasn't very helpful and it was my husband who ushered us into the media room (the hotel staff left guests sitting in the lobby area which had an entire wall of windows!!!!!!) to be safe.  WAY not cool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r124122246-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>124122246</t>
+  </si>
+  <si>
+    <t>02/04/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised by This Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here on the first couple of days in February 2012 and chose this hotel based on the reviews.  I otherwise, didn't really consider Staybridge Suites in the past.  I was truly wowed by the room in which I stayed (suite 101) which was a one bedroom suite.
+First things first, the hotel is located right off Interstate 635 (LBJ) freeway and is relatively close to the airport (about 15 minutes from the rental car area).  There are plenty of restaurants just a short drive along the service road.  The exterior of the hotel is rather basic looking and doesn't do justice to what I found inside.  Check-in was easy and the front desk person was very nice.  When I found out my room was on the first floor, I asked for a higher room, but none were available with a suite, only studios.  So I opted to keep the one bedroom suite and am glad I did.
+The suite is rather small, but is so nicely decorated and furnished that it felt extremely cozy and comfortable.  The dark woods are warm and rich and the fixtures are exquisite, not what one would find in a typical hotel.  The tiles in the kitchen and bathroom are made to look like wood floors and are very nice.  There's a kitchen with a full size refrigerator, flat top stove, microwave, sink, granite counter tops, plenty of cabinets and a pantry.  There...I stayed here on the first couple of days in February 2012 and chose this hotel based on the reviews.  I otherwise, didn't really consider Staybridge Suites in the past.  I was truly wowed by the room in which I stayed (suite 101) which was a one bedroom suite.First things first, the hotel is located right off Interstate 635 (LBJ) freeway and is relatively close to the airport (about 15 minutes from the rental car area).  There are plenty of restaurants just a short drive along the service road.  The exterior of the hotel is rather basic looking and doesn't do justice to what I found inside.  Check-in was easy and the front desk person was very nice.  When I found out my room was on the first floor, I asked for a higher room, but none were available with a suite, only studios.  So I opted to keep the one bedroom suite and am glad I did.The suite is rather small, but is so nicely decorated and furnished that it felt extremely cozy and comfortable.  The dark woods are warm and rich and the fixtures are exquisite, not what one would find in a typical hotel.  The tiles in the kitchen and bathroom are made to look like wood floors and are very nice.  There's a kitchen with a full size refrigerator, flat top stove, microwave, sink, granite counter tops, plenty of cabinets and a pantry.  There are also a couple of very nice bar stools at the counter right next to the living room area.The living room is rather small and feels a little bit cluttered with a sofa and large (and very comfortable) leather chair.  There are two small ottomans in the middle and a work desk with another comfortable work chair.  The lighting is very relaxing in the room.  There's also a remote control thermostat that can be adjusted just by pointing it at the ceiling.  Very cool.  Although a little tight, I found the living room area to be pleasant.The living room has a 32" LCD HDTV and all the channels are truly in HD!  The TV selection is very different from most hotels.  They have Time Warner cable and it includes a package with a substantial set of channels and even a channel guide similar to what you might find at home with listings of shows coming up and descriptions.  Loved it!  There's also free on demand, but not the typical free preview on demand found in most hotels.  These were on-demand shows like you might find at home too.  They had about 20 or so networks on demand such as CBS, ABC, TNT, Cartoon Network, HBO, etc.  I watched a couple of episodes of Big Bang Theory I had previously missed.  The TV sits on top of a nice stand with storage underneath.  There's also a DVD player hooked up.There are double doors to the bedroom which has a comfortable king size bed, two night stands and another 32" TV on top of another stand with storage.  The bedroom is about the same size as the living room and was extremely comfortable.  There's an extra chair next to the bed too.Adjacent to the bedroom is the bathroom with a vanity and closet outside the bathroom door, then the toilet and a large shower behind the door.  There wasn't a tub in this suite which I prefer.  The shower is large and the water pressure was quite good.The hotel has a pool and fitness area which I didn't use.  There's also a theater with a huge screen, but I'm not exactly sure how it works to utilize it.  They have free breakfast and 'dinner' during specific hours.  The breakfast includes hot foods although I just had a danish and some fruit.  I didn't check out the food after work, but they had meatballs one of the nights I was there.There is also free high speed internet (wired and wireless).  I used the wired assuming it would be a bit faster and didn't have any issues with typical web surfing or checking e-mails.  I didn't do anything that would have required substantial speed.The only drawbacks I found were minor.  For example, being on the first floor, I had a view of parked cars right outside my window.  I usually like to keep the curtains open for natural light, especially in the morning, but didn't since everyone going by could see inside.  The light switch in the bathroom also turned on the loud fan.  I wasn't a fan of that.Here's a tip about the power saving option they have in the rooms.  The rooms require that a key be placed into a slot in the room to turn on the power (lights, TV, etc.) in the room.  If you take out that key, it also shuts off the TV's cable box and it takes a while to reboot it.  So be patient if anyone pulls that key out of the slot.All in all, I really enjoyed my stay here and find myself wishing I could have stayed longer (was only there 2 nights) in this little oasis away from home.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I stayed here on the first couple of days in February 2012 and chose this hotel based on the reviews.  I otherwise, didn't really consider Staybridge Suites in the past.  I was truly wowed by the room in which I stayed (suite 101) which was a one bedroom suite.
+First things first, the hotel is located right off Interstate 635 (LBJ) freeway and is relatively close to the airport (about 15 minutes from the rental car area).  There are plenty of restaurants just a short drive along the service road.  The exterior of the hotel is rather basic looking and doesn't do justice to what I found inside.  Check-in was easy and the front desk person was very nice.  When I found out my room was on the first floor, I asked for a higher room, but none were available with a suite, only studios.  So I opted to keep the one bedroom suite and am glad I did.
+The suite is rather small, but is so nicely decorated and furnished that it felt extremely cozy and comfortable.  The dark woods are warm and rich and the fixtures are exquisite, not what one would find in a typical hotel.  The tiles in the kitchen and bathroom are made to look like wood floors and are very nice.  There's a kitchen with a full size refrigerator, flat top stove, microwave, sink, granite counter tops, plenty of cabinets and a pantry.  There...I stayed here on the first couple of days in February 2012 and chose this hotel based on the reviews.  I otherwise, didn't really consider Staybridge Suites in the past.  I was truly wowed by the room in which I stayed (suite 101) which was a one bedroom suite.First things first, the hotel is located right off Interstate 635 (LBJ) freeway and is relatively close to the airport (about 15 minutes from the rental car area).  There are plenty of restaurants just a short drive along the service road.  The exterior of the hotel is rather basic looking and doesn't do justice to what I found inside.  Check-in was easy and the front desk person was very nice.  When I found out my room was on the first floor, I asked for a higher room, but none were available with a suite, only studios.  So I opted to keep the one bedroom suite and am glad I did.The suite is rather small, but is so nicely decorated and furnished that it felt extremely cozy and comfortable.  The dark woods are warm and rich and the fixtures are exquisite, not what one would find in a typical hotel.  The tiles in the kitchen and bathroom are made to look like wood floors and are very nice.  There's a kitchen with a full size refrigerator, flat top stove, microwave, sink, granite counter tops, plenty of cabinets and a pantry.  There are also a couple of very nice bar stools at the counter right next to the living room area.The living room is rather small and feels a little bit cluttered with a sofa and large (and very comfortable) leather chair.  There are two small ottomans in the middle and a work desk with another comfortable work chair.  The lighting is very relaxing in the room.  There's also a remote control thermostat that can be adjusted just by pointing it at the ceiling.  Very cool.  Although a little tight, I found the living room area to be pleasant.The living room has a 32" LCD HDTV and all the channels are truly in HD!  The TV selection is very different from most hotels.  They have Time Warner cable and it includes a package with a substantial set of channels and even a channel guide similar to what you might find at home with listings of shows coming up and descriptions.  Loved it!  There's also free on demand, but not the typical free preview on demand found in most hotels.  These were on-demand shows like you might find at home too.  They had about 20 or so networks on demand such as CBS, ABC, TNT, Cartoon Network, HBO, etc.  I watched a couple of episodes of Big Bang Theory I had previously missed.  The TV sits on top of a nice stand with storage underneath.  There's also a DVD player hooked up.There are double doors to the bedroom which has a comfortable king size bed, two night stands and another 32" TV on top of another stand with storage.  The bedroom is about the same size as the living room and was extremely comfortable.  There's an extra chair next to the bed too.Adjacent to the bedroom is the bathroom with a vanity and closet outside the bathroom door, then the toilet and a large shower behind the door.  There wasn't a tub in this suite which I prefer.  The shower is large and the water pressure was quite good.The hotel has a pool and fitness area which I didn't use.  There's also a theater with a huge screen, but I'm not exactly sure how it works to utilize it.  They have free breakfast and 'dinner' during specific hours.  The breakfast includes hot foods although I just had a danish and some fruit.  I didn't check out the food after work, but they had meatballs one of the nights I was there.There is also free high speed internet (wired and wireless).  I used the wired assuming it would be a bit faster and didn't have any issues with typical web surfing or checking e-mails.  I didn't do anything that would have required substantial speed.The only drawbacks I found were minor.  For example, being on the first floor, I had a view of parked cars right outside my window.  I usually like to keep the curtains open for natural light, especially in the morning, but didn't since everyone going by could see inside.  The light switch in the bathroom also turned on the loud fan.  I wasn't a fan of that.Here's a tip about the power saving option they have in the rooms.  The rooms require that a key be placed into a slot in the room to turn on the power (lights, TV, etc.) in the room.  If you take out that key, it also shuts off the TV's cable box and it takes a while to reboot it.  So be patient if anyone pulls that key out of the slot.All in all, I really enjoyed my stay here and find myself wishing I could have stayed longer (was only there 2 nights) in this little oasis away from home.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r121103540-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>121103540</t>
+  </si>
+  <si>
+    <t>11/27/2011</t>
+  </si>
+  <si>
+    <t>Great value at an excellent price!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitely will stay again, 2 toddlers and wife had plenty of room for for, the separated bedroom living area with kitchenette were great. Nice clean rooms and Restuarants within a mile Chilis, Cheddars, Razoos, Salt Grass just to name a few. Also next door is 24ht fitness, but fitness room is fine as well. Theater room for movie night, breakfast with waffles eggs, sausage, bacon, potatoes, fruits all were good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r120928195-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>120928195</t>
+  </si>
+  <si>
+    <t>11/22/2011</t>
+  </si>
+  <si>
+    <t>Excellent hotel - business or family</t>
+  </si>
+  <si>
+    <t>Let me start by saying I travel A LOT for work - about 200 days/year for the past 10 years.  Suffice it to say, I've stayed in plenty of hotels all over the country.  When you consider the friendly and accommodating staff, amenities (there's a theater room and free laundry!!), location and convenience, this is the best place I've been.  Everyone on the hotel staff, from maintenance to manager, is top-notch.  I stayed for 4 1/2 months and had my wife &amp; 3 kids stay with me for about six weeks of it.  The hotel staff made all of us feel right at home.  The kiddos loved the pool and the theater; my wife and I loved the proximity to restaurants and the 24-Hr Fitness (right next door...).  Even after my family returned to Colorado, several members of the staff continued to ask about them for the rest of my stay.  The pool was under renovation the last month or so while I was there - not a big deal b/c the weather had cooled off considerably by that time.  I could nit-pick about the size of the rooms (a little on the snug side) and some of the evening meals (hard to complain about free food, though...) but I've learned over the years not to sweat the small stuff.  No hotel is perfect, but this one is pretty close!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Let me start by saying I travel A LOT for work - about 200 days/year for the past 10 years.  Suffice it to say, I've stayed in plenty of hotels all over the country.  When you consider the friendly and accommodating staff, amenities (there's a theater room and free laundry!!), location and convenience, this is the best place I've been.  Everyone on the hotel staff, from maintenance to manager, is top-notch.  I stayed for 4 1/2 months and had my wife &amp; 3 kids stay with me for about six weeks of it.  The hotel staff made all of us feel right at home.  The kiddos loved the pool and the theater; my wife and I loved the proximity to restaurants and the 24-Hr Fitness (right next door...).  Even after my family returned to Colorado, several members of the staff continued to ask about them for the rest of my stay.  The pool was under renovation the last month or so while I was there - not a big deal b/c the weather had cooled off considerably by that time.  I could nit-pick about the size of the rooms (a little on the snug side) and some of the evening meals (hard to complain about free food, though...) but I've learned over the years not to sweat the small stuff.  No hotel is perfect, but this one is pretty close!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r117094094-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>117094094</t>
+  </si>
+  <si>
+    <t>08/22/2011</t>
+  </si>
+  <si>
+    <t>It served our business meeting needs, and the staff accomdated as our needs changed.</t>
+  </si>
+  <si>
+    <t>Staybridge provided us great meeting space services and met every planned need.  When our needs changed and we required additional spaces and dates, the staff accomodated us in just about every way.  Many on our corporate team had extended stays, and we all found our rooms to be excellent.  The room rates were very reasonable, yet their accomodations were approaching a high-end hotel.  Plus, the included morning breakfasts are well above many of their competitors' offerings.I'd recommend this Staybridge to any personal or business traveler.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r115495216-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>115495216</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>Boutique decor at better price</t>
+  </si>
+  <si>
+    <t>This is such a wonderful new place to stay.  Our room was very chic, with high padded headboard, ambient lighting, zen-like bath area, modern living area with plants, granite countertops and stainless steel appliances in the kitchen area and rich dark woods, and it is a "green" hotel! I will definitely stay here again when in Dallas.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r112113455-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>112113455</t>
+  </si>
+  <si>
+    <t>06/07/2011</t>
+  </si>
+  <si>
+    <t>New management, new attitude</t>
+  </si>
+  <si>
+    <t>I have stayed here regularly over 3 years and the management teams seem to change with the seasons.  The current team has been depressing.  Shuttle service used to be available for grocery shopping or dinner, then it wasn't (this is an extended stay hotel).  The shuttle might or might not be picking up guests at the airport this week.  Groups might or might not be able to use the outdoor cooking facility this week.  The hot tub was "under repair" for over a month after the health department closed it.  The front desk was pleasant or snarly.  The inconsistent attitude toward customer service caused us to quit using this property for now.  I can't wait for the next palace purge so that we can go back there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I have stayed here regularly over 3 years and the management teams seem to change with the seasons.  The current team has been depressing.  Shuttle service used to be available for grocery shopping or dinner, then it wasn't (this is an extended stay hotel).  The shuttle might or might not be picking up guests at the airport this week.  Groups might or might not be able to use the outdoor cooking facility this week.  The hot tub was "under repair" for over a month after the health department closed it.  The front desk was pleasant or snarly.  The inconsistent attitude toward customer service caused us to quit using this property for now.  I can't wait for the next palace purge so that we can go back there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r109074864-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>109074864</t>
+  </si>
+  <si>
+    <t>05/20/2011</t>
+  </si>
+  <si>
+    <t>Great find!</t>
+  </si>
+  <si>
+    <t>Immensely surprised by this hotel.  This was my first stay in this chain and will be the first of many if the others are of the same quality.Clean and impeccable service.Assisted capably throughout our stay by Sonja PHILLIPS, Dir. of Sales, on all matters business related.  Great conference facilities with all modes of presentation assistance.Excellent!  Thank you again Sonja!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r107802850-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>107802850</t>
+  </si>
+  <si>
+    <t>05/11/2011</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>Great property. Staff truly make you feel like a guest. Updated, upscale property for a fair price.Located in a great location with easy access to the airport and I635 to Dallas, as well as the George Bush Turnpike to areas north</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r101191651-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>101191651</t>
+  </si>
+  <si>
+    <t>03/22/2011</t>
+  </si>
+  <si>
+    <t>Awesome Staybridge!  Will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>This hotel is incredibly nice!  Everything seemed very new to me.  Staff was great.  The pool &amp; hot tub were very relaxing.  The Internet speed was exceptionally good as well.Fantastic place!  Can't go wrong here!</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r64854104-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>64854104</t>
+  </si>
+  <si>
+    <t>05/20/2010</t>
+  </si>
+  <si>
+    <t>DECENT HOTEL</t>
+  </si>
+  <si>
+    <t>Brand new hotel.  Nothing special.  Comfortable bed; very clean.  Rooms seem smaller than other Staybridge Suites we've stayed at.  Ultra modern furnishings.  Very nice staff.  Nice pool area, though very small.  Decent breakfast.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r60707067-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>60707067</t>
+  </si>
+  <si>
+    <t>04/07/2010</t>
+  </si>
+  <si>
+    <t>Excellent Service, excellent rooms next to DFW airport</t>
+  </si>
+  <si>
+    <t>Hotel staff was awsome!  Hotel public areas and rooms quiet and impeccable!  Excellent if you are traveling with children.  I highly recommend this hotel to everyone!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r54144392-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>54144392</t>
+  </si>
+  <si>
+    <t>01/22/2010</t>
+  </si>
+  <si>
+    <t>Excellent Place for Graduation Party!</t>
+  </si>
+  <si>
+    <t>This hotel will really surprise you!  The ambience is amazing and the rooms are mordern and luxe.  I graduated from Chiropractic School and the location was perfect for my friends and family!  There is an outdoor cabana with grill and complementary breakfast and sunbreak wine hour!  The management was excellent and catered to our every need.  The kitchen is amazing and has all stainless steel appliances.  It was defitnitely a hit and my family was really impressed!  I rented out one of the rooms for a banquet setting which was extremely affordable.  I recommend this hotel whether its business or pleasure.  It leaves you wanting more.  Now my family are looking for Staybridge Suites in their area bc it was the best hotel that they had been to.  I normally don't leave reviews but I always check reviews.  Hopefully this helps someone greatly.Dr. Krystal B.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>This hotel will really surprise you!  The ambience is amazing and the rooms are mordern and luxe.  I graduated from Chiropractic School and the location was perfect for my friends and family!  There is an outdoor cabana with grill and complementary breakfast and sunbreak wine hour!  The management was excellent and catered to our every need.  The kitchen is amazing and has all stainless steel appliances.  It was defitnitely a hit and my family was really impressed!  I rented out one of the rooms for a banquet setting which was extremely affordable.  I recommend this hotel whether its business or pleasure.  It leaves you wanting more.  Now my family are looking for Staybridge Suites in their area bc it was the best hotel that they had been to.  I normally don't leave reviews but I always check reviews.  Hopefully this helps someone greatly.Dr. Krystal B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r23744317-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>23744317</t>
+  </si>
+  <si>
+    <t>01/20/2009</t>
+  </si>
+  <si>
+    <t>A little disappointed</t>
+  </si>
+  <si>
+    <t>very nice hotel, room was lovely, clean and comfortable, just the service need some improvement. When I book this hotel online, hotel amenities included "free airport shuttle", I was checked in at a weekend, the staff told me free shuttle only available on Monday to Friday, I was a bit disappointed, if I knew that before, I won't choose this hotel, there are plenty of hotels provided free shuttle service 7 days a week. The staff said he can help me to call a cab when I leaving, I told him I need to leave at 9 am at the next day morning, he promised he will call the cab come and wait for me before 9 o'clock, but he made a note to the next shift, call a cab for me at 9 o'clock, the girl who working at the next day morning, call the cab around 8:55, I got the cab at 9:30, at last, I spent $30 more wholly unexpected and almost missed the flight.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>very nice hotel, room was lovely, clean and comfortable, just the service need some improvement. When I book this hotel online, hotel amenities included "free airport shuttle", I was checked in at a weekend, the staff told me free shuttle only available on Monday to Friday, I was a bit disappointed, if I knew that before, I won't choose this hotel, there are plenty of hotels provided free shuttle service 7 days a week. The staff said he can help me to call a cab when I leaving, I told him I need to leave at 9 am at the next day morning, he promised he will call the cab come and wait for me before 9 o'clock, but he made a note to the next shift, call a cab for me at 9 o'clock, the girl who working at the next day morning, call the cab around 8:55, I got the cab at 9:30, at last, I spent $30 more wholly unexpected and almost missed the flight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r23253181-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>23253181</t>
+  </si>
+  <si>
+    <t>01/04/2009</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was very close to the DFW Airport and also close to the Town. There were many restaurants close by to the hotel. There was a 24 Hour Fitness next to the hotel. I also enjoyed the movie theatre that was walking distance from the hotel. Rooms were very well decorated. Lobby was so nice. They even have a movie theatre for Football and Basketball games.Breakfast in the morning was quite extensive with hot and cold items. The exercise room in the hotel has great PRECORE machines.Evening managers reception had great selection of Beer and Wines along with finger food.I would love to stay here again when I am in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>This hotel was very close to the DFW Airport and also close to the Town. There were many restaurants close by to the hotel. There was a 24 Hour Fitness next to the hotel. I also enjoyed the movie theatre that was walking distance from the hotel. Rooms were very well decorated. Lobby was so nice. They even have a movie theatre for Football and Basketball games.Breakfast in the morning was quite extensive with hot and cold items. The exercise room in the hotel has great PRECORE machines.Evening managers reception had great selection of Beer and Wines along with finger food.I would love to stay here again when I am in Dallas.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2248,4458 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>232</v>
+      </c>
+      <c r="X26" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>256</v>
+      </c>
+      <c r="X29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>264</v>
+      </c>
+      <c r="X30" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>273</v>
+      </c>
+      <c r="X31" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>282</v>
+      </c>
+      <c r="X32" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>296</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>297</v>
+      </c>
+      <c r="X34" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>305</v>
+      </c>
+      <c r="X35" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>313</v>
+      </c>
+      <c r="X36" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s">
+        <v>320</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>322</v>
+      </c>
+      <c r="X37" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>330</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>339</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>340</v>
+      </c>
+      <c r="X39" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>346</v>
+      </c>
+      <c r="L40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>348</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>354</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>355</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>356</v>
+      </c>
+      <c r="X41" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L42" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>364</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>365</v>
+      </c>
+      <c r="X42" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>369</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s">
+        <v>371</v>
+      </c>
+      <c r="L43" t="s">
+        <v>372</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>373</v>
+      </c>
+      <c r="X43" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>377</v>
+      </c>
+      <c r="J44" t="s">
+        <v>378</v>
+      </c>
+      <c r="K44" t="s">
+        <v>379</v>
+      </c>
+      <c r="L44" t="s">
+        <v>380</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>381</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>382</v>
+      </c>
+      <c r="X44" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>386</v>
+      </c>
+      <c r="J45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K45" t="s">
+        <v>388</v>
+      </c>
+      <c r="L45" t="s">
+        <v>389</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>381</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>382</v>
+      </c>
+      <c r="X45" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>392</v>
+      </c>
+      <c r="J46" t="s">
+        <v>393</v>
+      </c>
+      <c r="K46" t="s">
+        <v>394</v>
+      </c>
+      <c r="L46" t="s">
+        <v>395</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>381</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>396</v>
+      </c>
+      <c r="X46" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>404</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>411</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>412</v>
+      </c>
+      <c r="X48" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>415</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>416</v>
+      </c>
+      <c r="J49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K49" t="s">
+        <v>418</v>
+      </c>
+      <c r="L49" t="s">
+        <v>419</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>411</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>420</v>
+      </c>
+      <c r="X49" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>428</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>429</v>
+      </c>
+      <c r="X50" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>432</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>433</v>
+      </c>
+      <c r="J51" t="s">
+        <v>434</v>
+      </c>
+      <c r="K51" t="s">
+        <v>435</v>
+      </c>
+      <c r="L51" t="s">
+        <v>436</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>428</v>
+      </c>
+      <c r="O51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>429</v>
+      </c>
+      <c r="X51" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>439</v>
+      </c>
+      <c r="J52" t="s">
+        <v>440</v>
+      </c>
+      <c r="K52" t="s">
+        <v>441</v>
+      </c>
+      <c r="L52" t="s">
+        <v>442</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>443</v>
+      </c>
+      <c r="O52" t="s">
+        <v>444</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>429</v>
+      </c>
+      <c r="X52" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>446</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>447</v>
+      </c>
+      <c r="J53" t="s">
+        <v>448</v>
+      </c>
+      <c r="K53" t="s">
+        <v>449</v>
+      </c>
+      <c r="L53" t="s">
+        <v>450</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>451</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>453</v>
+      </c>
+      <c r="J54" t="s">
+        <v>454</v>
+      </c>
+      <c r="K54" t="s">
+        <v>455</v>
+      </c>
+      <c r="L54" t="s">
+        <v>456</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>457</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>458</v>
+      </c>
+      <c r="X54" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>461</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>462</v>
+      </c>
+      <c r="J55" t="s">
+        <v>463</v>
+      </c>
+      <c r="K55" t="s">
+        <v>464</v>
+      </c>
+      <c r="L55" t="s">
+        <v>465</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>443</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>467</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>468</v>
+      </c>
+      <c r="J56" t="s">
+        <v>469</v>
+      </c>
+      <c r="K56" t="s">
+        <v>470</v>
+      </c>
+      <c r="L56" t="s">
+        <v>471</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>472</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>474</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>475</v>
+      </c>
+      <c r="J57" t="s">
+        <v>476</v>
+      </c>
+      <c r="K57" t="s">
+        <v>477</v>
+      </c>
+      <c r="L57" t="s">
+        <v>478</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>480</v>
+      </c>
+      <c r="J58" t="s">
+        <v>481</v>
+      </c>
+      <c r="K58" t="s">
+        <v>482</v>
+      </c>
+      <c r="L58" t="s">
+        <v>483</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>484</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>486</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>487</v>
+      </c>
+      <c r="J59" t="s">
+        <v>488</v>
+      </c>
+      <c r="K59" t="s">
+        <v>489</v>
+      </c>
+      <c r="L59" t="s">
+        <v>490</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>491</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>492</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>493</v>
+      </c>
+      <c r="J60" t="s">
+        <v>494</v>
+      </c>
+      <c r="K60" t="s">
+        <v>495</v>
+      </c>
+      <c r="L60" t="s">
+        <v>496</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>497</v>
+      </c>
+      <c r="O60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>498</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>499</v>
+      </c>
+      <c r="J61" t="s">
+        <v>500</v>
+      </c>
+      <c r="K61" t="s">
+        <v>501</v>
+      </c>
+      <c r="L61" t="s">
+        <v>502</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>503</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>505</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>506</v>
+      </c>
+      <c r="J62" t="s">
+        <v>507</v>
+      </c>
+      <c r="K62" t="s">
+        <v>508</v>
+      </c>
+      <c r="L62" t="s">
+        <v>509</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>497</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>510</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>511</v>
+      </c>
+      <c r="J63" t="s">
+        <v>512</v>
+      </c>
+      <c r="K63" t="s">
+        <v>513</v>
+      </c>
+      <c r="L63" t="s">
+        <v>514</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>497</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>516</v>
+      </c>
+      <c r="J64" t="s">
+        <v>517</v>
+      </c>
+      <c r="K64" t="s">
+        <v>518</v>
+      </c>
+      <c r="L64" t="s">
+        <v>519</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>520</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>521</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>522</v>
+      </c>
+      <c r="J65" t="s">
+        <v>523</v>
+      </c>
+      <c r="K65" t="s">
+        <v>524</v>
+      </c>
+      <c r="L65" t="s">
+        <v>525</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>526</v>
+      </c>
+      <c r="O65" t="s">
+        <v>73</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>527</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>528</v>
+      </c>
+      <c r="J66" t="s">
+        <v>529</v>
+      </c>
+      <c r="K66" t="s">
+        <v>530</v>
+      </c>
+      <c r="L66" t="s">
+        <v>531</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>532</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>533</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>534</v>
+      </c>
+      <c r="J67" t="s">
+        <v>535</v>
+      </c>
+      <c r="K67" t="s">
+        <v>536</v>
+      </c>
+      <c r="L67" t="s">
+        <v>537</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>538</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>540</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>541</v>
+      </c>
+      <c r="J68" t="s">
+        <v>542</v>
+      </c>
+      <c r="K68" t="s">
+        <v>543</v>
+      </c>
+      <c r="L68" t="s">
+        <v>544</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>545</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58675</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>547</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>548</v>
+      </c>
+      <c r="J69" t="s">
+        <v>549</v>
+      </c>
+      <c r="K69" t="s">
+        <v>550</v>
+      </c>
+      <c r="L69" t="s">
+        <v>551</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>552</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>553</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_698.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_698.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>EliasBN</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -197,6 +200,9 @@
 The following days I asked the other persons on the Reception if I can pay when checking out or you still...I have been to many Hotels all over the World but I did not face a situation like this beforeThe worst receptionist man everThe Guy on the Reception called Michael who is pretending to be the Manager and who should not be in this place at all because if you want happy customers and good reputation for your Hotel you need to put helpful stuff there, not one like this rude one who made our stay at Staybridge not pleasant at all from the day we checked in till the day we checked out from the Hotel after 3 nights, and which it was mentioned to be 13 nights but because of this Guy we shortened it to 3 nightsAt check in, my Wife and I waited around 1 hour in the reception area after 22 hours of Flight because the visa card did not work, I told him that I will pay cash all nights and you have my ID so where is the problem, he did not accept, after around 1 hour of negotiations I gave him another card to check it if it works and to reserve 3 Nights until I solve the problem of the original card with my Bank, so he used it and we managed to check in at last.The following days I asked the other persons on the Reception if I can pay when checking out or you still need the other card for authorization, they were very friendly and they told me that I can pay at checkout no problem, also they told us that we can go by the Hotel Free Shuttle to one of the Malls.The following day we decided to go to the Mall that the nice receptionists told us about and it was the turn of that man on the reception, he told us that the Hotel Shuttle does not go to this Mall at all and he asked us about the card because he wanted to authorize all the nights, we told him what the other receptionists said and that we could pay when checking out but he was not listening and he was very impolite thinking that he is above people, knowing that those people are the ones who pay him for that job to live.The same night I reserved another Hotel and I checked out.Sometimes one person could affect very negatively on a Hotel and make your stay unpleasant at all no matter what the Hotel was offering.I do not recommend this Hotel to anyoneMore</t>
   </si>
   <si>
+    <t>SSemone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r553464990-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
     <t>Definitely comfortable if you are flying out of DWF.  We had a two room suite and it was perfect for us.  The room was comfortable and had everything we need.  One of the bathroom lights didn’t work - but other than that no complaints. More</t>
   </si>
   <si>
+    <t>thecountrybumpkin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r522699281-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -255,6 +264,9 @@
   </si>
   <si>
     <t>We were upgraded so the room was large and comfy. They do have an airport shuttle but I forgot and had a taxi bring us to the hotel...RIPOFF, the guy charged us $35.00 one way, and its not that far from the airport. We did sign up for the free shuttle to take us back to the airport,( which I was concerned about, since it was only a regular van, but there was only 1 other man that needed to be at the airport on the 1st shuttle.)Did not see much as far as other restaurants while driving there, but Tuesday nights they have a dinner there at the breakfast area, so we had sloppy joes and salad... the breakfast buffet was great, plenty of fresh fruit, a couple finds of breakfast pizza, scrambled eggs, and breads. I did see a pool, but did not use it since we were pretty tired from a long flight... then had to fly out early the next day. Looked great for couples as well as families. Bed was comfortable and towels were upgraded....huge, which was greatMore</t>
+  </si>
+  <si>
+    <t>deathracer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r493710761-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
@@ -306,6 +318,9 @@
 Beside the breakfast room is a 30 seat theater where you can borrow DVDs and...I stayed at Staybridge Suites Irving for 2 weeks recently.The property is located between an upscale neighbourhood and the highway.Within walking distance are; a big box hardware store, huge electronics store and a few restaurants.The entranceway has a seating area and I saw mostly smokers congregated there, as there are specific cigarette ash trays for their use.  Oddly there is a no smoking within 25 feet sign, just 15 feet from the smoking area.  Arriving back to the hotel on “Social” evenings, you need to work your way through the congregation of smokers at the front.There are 2 speakers at the entrance tuned to a local radio station, so you get a mix of music and talk/news and advertising.  The speakers are not always running – not sure why.The front desk staff were always friendly, although some of them are often seen immersed in their smart phones.The area immediately behind the desk was always cluttered with packages, vacuum cleaners, tools, etc.….The breakfast room was well laid out and had very comfortable leather seating.They had a choice of Styrofoam/plastic or real plates and cutlery.There was always a selection of cut fruit and the eggs tasted real (not from powder)In back of the breakfast room, there is a small pool area and adjacent BBQ and lounging area.Beside the breakfast room is a 30 seat theater where you can borrow DVDs and have viewings.The Business room with computers has a library of books and games.I saw some conference rooms.Laundry is on the main floor.There is a small gym with machine weights, aerobic machines and some floor equipment like stability balls, rubber bands, mats, etc. There is a TV and some sanitizer to clean the equipment after usage.There are 2 elevators.  They move slowly.SuiteI was on the 4th floor in a one bedroom suite which seemed a bit dark for the following reasons:-	The décor of the suite is dark.  All dark brown wood, dark chairs, etc.-	The lighting is old weak spiral fluorescents made more dim by being in shades-	The window decorative side curtains are permanently adjusted to block about 8 inches of window on each sideLiving areaOne single window which does not openHide-away couch (which I found to be uncomfortably hard and very narrow)Large very comfortable leather easy chairWork desk (large)Work chair (very comfortable adjustable faux leather)Internet &amp; connectivity-	Measured both wired and wireless at a very slow 2 Mpbs throughout my stay.  -	No USB charging ports availableKitchen-	Good layout-	Fridge temperature was set way too low before I knew about it and melted my first freezer items-	Fridge was a bit loud at timesBedroom-	One single window that does not open-	Large comfortable bed with good linens-	Comfortable leather arm chair-	Good amount of storage-       Alarm clockBathroom-	Sink/mirror separated from toilette and tub/shower area-	Amenities; The usual, however I had only 1 single shampoo, when staff knew I was staying long term and there is a sign in the room that says if you are staying more than one week, only once per week room maintenance is provided.-	Bathroom fan very loudWater Temperature/Pressure-	Pressure is med/low-	All 3 water faucets in the suite are dark brown and have no visible HOT/COLD indications.  Selecting the right temperature required experimentation as to which direction to go.AirCon/Ventilation-	The AirCon control is remote and you must remove it from its holder and point it to the wall sensor in the kitchen to change settings.  Only when you hear a beep has the setting been taken.-	I had to experiment for a few days to find what worked, because whatever I dialed in, the actual temperature ended up to be about 10 degrees lower.   I usually kept the control at 76F, which ended up being 66F (as measured on my watch when not on my wrist)Other Controls-	In the bedroom, I counted 4 separate wall switches which did nothing.  I asked the maintenance person what they did and he didn’t know.Entertainment-	2 med. size flat screens with some premium channels included -	All the channels listed in the guide were actually available (note there is a laminated card showing  available channels – there are actually more channels available compared to what is on the laminated card)-	Channels and TV are true high definition-	There is an available external HDMI input where you can plug in a Chrome dongle or your laptop, however you can’t select that HDMI input with the universal remote.  Instead you need to use the controls on the side of the TV itself (Menu/Inputs)-       There is one DVD player in the living room and I did see DVDs to borrow in the lobby.Cleanliness-	Overall OK, but I did see traces of former guests in my suite; oily finger impressions on cupboard doors in the kitchen, stains and a chewing gum mini blob on my night table.  Even in the elevator I saw the same hand prints for the entire 2 weeks of my stay.  Unlike other hotels where I’ve seen staff busy cleaning and polishing the common areas, I saw little of that at this property.Maintenance-	Bathroom lamp above sink defective upon my arrival-	Toilette seat missing one attachment cap cover-	Toilette roll holder was broken and temporarily propped up-	Shower curtain was partially torn out of some of the eye-lets-	Faux Leather desk work chair torn up (read about this in other reviews as well)-	Faucet in kitchen didn’t output hot water when handle turned either way(hot water port in cartridge likely clogged)-       Faucet in kitchen has scale buildup at the baseSoundproof?-	 Very good on 4th floor near end of hallwaySecurity-	No in-room safe-	Card swipe required from outside doors (except lobby entrance)Other amenities-	Hair dryer, iron, ironing boardAlso-	Kitchen floor and bathroom are dark brown tile, remainder of suite is carpetedWhat I liked-	Quiet and secure-	Comfortable bed-	Breakfast area comfort and food choiceTo improve-	Internet speed-	Extra level of cleanliness, attention to detail-	Provide more amenities for long term guests-	Maintenance items (torn chair, light bulbs burnt out, toilette holder, kitchen tap no hot water) maybe a room checklist for housekeeping staff would help-	Don’t allow clutter to build-up in the front desk area (first view a person sees when checking in)-	Replace spiral lights with dimmable LEDs-	Label unused light switches as such-	Add labels to faucets indicating Hot &amp; Cold-	Adjust border curtains to allow more light into the rooms-	Provide another area specifically for smokers (by removing a couple of parking spaces)Considering the features of the common areas (outdoor pool and BBQ, cinema, library, etc...) I think this property would be great for a family reunion, get-together, or company retreat.This hotel has all the basics for excellence.  Some small upgrades, attention to details and maintenance improvements would go a long way.More</t>
   </si>
   <si>
+    <t>ShawnS007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r489777993-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -333,6 +348,9 @@
     <t>I've stayed at Staybridge Suites in other states before and I loved it, which is why I chose to stay at this hotel. However, this time, I was disappointed. Many things were wrong. First, the first room we were given had a broken closet door and broken kitchen tiles that could be dangerous if walking barefooted. We immediately requested a room change. Second, the second room had a bathroom door couldn’t be properly opened or closed because it rubbed on the bathroom floor. We had to push hard to open and close the bathroom door, which made a horrible noise causing one of us to be awaken if the other person needed to use the bathroom.  Third, the bathroom sink water pressure was extremely low and took a long time to get warm. Also, white lime deposits were caked up and very visible on the bathroom faucet and it made brushing our teeth disturbing. We began using bottled water to brush our teeth and wash our face.  Fourth, our DVD player kept turning off in the middle of a movie.  Fifth, almost every time we left the hotel and returned, our room keys wouldn't work. Several times we went up to our room and then had to return all the way back downstairs to get a new key. This terribly annoyed me especially when returning late and tired.  We asked why this kept happening and were told to keep the...I've stayed at Staybridge Suites in other states before and I loved it, which is why I chose to stay at this hotel. However, this time, I was disappointed. Many things were wrong. First, the first room we were given had a broken closet door and broken kitchen tiles that could be dangerous if walking barefooted. We immediately requested a room change. Second, the second room had a bathroom door couldn’t be properly opened or closed because it rubbed on the bathroom floor. We had to push hard to open and close the bathroom door, which made a horrible noise causing one of us to be awaken if the other person needed to use the bathroom.  Third, the bathroom sink water pressure was extremely low and took a long time to get warm. Also, white lime deposits were caked up and very visible on the bathroom faucet and it made brushing our teeth disturbing. We began using bottled water to brush our teeth and wash our face.  Fourth, our DVD player kept turning off in the middle of a movie.  Fifth, almost every time we left the hotel and returned, our room keys wouldn't work. Several times we went up to our room and then had to return all the way back downstairs to get a new key. This terribly annoyed me especially when returning late and tired.  We asked why this kept happening and were told to keep the key away from our cell phones. We did, but the key still stopped working. This was very annoying! Sixth, when returning to our room late one night and after getting new keys, we opened the door and the hinges pulled completely out of the door frame putting saw dust on the floor and on our clothing. We then had to stand their holding the door open until someone came to fix it.  Seventh, on one day, we tried to use our iron, but it was completely broken with water leaking onto our clothes and the carpet. I called the front desk to request another iron and waited almost thirty minutes.  Then I had to call again because no one brought and iron to my room, which almost made me late to an event.  Eighth, the weekend breakfast employee wasn't very nice. We asked two questions about some of the food and our questions were met with very sarcastic remarks. For instance, I asked what an item was and her remark was "It's Breakfast". Then I asked if she could tell me what it was and her second remark was, "Of course I can, I made it". She then walked away and I never asked another question. On the same morning, my wife was walking to the juice machine to get more orange juice and the woman turned off the machine. She then told my wife that it was 10:32 and breakfast was over. We both felt that was very rude and other guests even shook their heads at the situation because they also tried to get some more juice. It was only 10:32!  Now, on a good note, Jessica the front desk manager and Charles the engineer was extremely kind, courteous and helpful with our problems. I commend them both!!  The room and hotel was very clean, which was a great thing.  The food was also very good.More</t>
   </si>
   <si>
+    <t>Silver999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r486724077-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -360,6 +378,9 @@
     <t>The room was well appointed and a good size with a desk, lounge area and a kitchenette with dishwasher, microwave &amp; fridge.   The queen bed was comfortable.    Bathroom had a shower only with good water pressure though the bathroom light/fan was extremely noisy.    The reception and breakfast area were nice and clean.   We had to wait 35 minutes for the shuttle from the airport.  The driver did call us after 25 minutes apologizing for the delay.    We stayed on a Friday night and didn’t realise the shuttle didn’t run on the weekend.   During our stay we were told one of the shuttle drivers has a taxi on the weekend.   I’m not sure whether or not he picked us up on our return as we booked a taxi back to the airport through reception.   The driver pulled up in a car/van and then told us it was a fixed rate of $32.00 to the airport which was expensive.    I would give this hotel 4 stars for the accommodation and would stay here again though not on the weekend.More</t>
   </si>
   <si>
+    <t>Diana B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r448396884-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -384,6 +405,9 @@
     <t>We booked this hotel through Priceline because it was near the DFW Airport and we had a layover. The hotel looked great cosmetically - had been recently renovated, nicely contemporary. Our room (1 queen) was spacious, with a nice full size kitchenette and EXCELLENT lighting. Sink/mirror were stellar, bathroom looked nice with glass shower doors, but floor was warped and door was difficult to close. Bed was pretty comfortable, though a tad on the soft side. Desk chair was a misfit, as it was literally torn up. Cleanliness was okay. Looked clean, but we killed an ant under the bathroom sink and another on the couch. I don't know if it's because we had booked through an online site, but our room (219?) was next to the elevator, in a part of the hallway essentially overlooking the lobby, so there was a potential for lots of noise. We didn't end up  having noise issues, though we did use the white noise feature on the clock. Amenities were very nice for this level hotel. Workout room had decent amount of equipment and all appeared to be in good working order. Breakfast was much better than most - eggs, cheese, excellent condiments, sausage, potatoes, waffles, fruit &amp; cereal. BEWARE! If you're booking this because it looks like a nice DFW Airport hotel, THE SHUTTLE DOESN'T RUN ON WEEKENDS!! When we called from the airport on Sat. to have the shuttle come, we...We booked this hotel through Priceline because it was near the DFW Airport and we had a layover. The hotel looked great cosmetically - had been recently renovated, nicely contemporary. Our room (1 queen) was spacious, with a nice full size kitchenette and EXCELLENT lighting. Sink/mirror were stellar, bathroom looked nice with glass shower doors, but floor was warped and door was difficult to close. Bed was pretty comfortable, though a tad on the soft side. Desk chair was a misfit, as it was literally torn up. Cleanliness was okay. Looked clean, but we killed an ant under the bathroom sink and another on the couch. I don't know if it's because we had booked through an online site, but our room (219?) was next to the elevator, in a part of the hallway essentially overlooking the lobby, so there was a potential for lots of noise. We didn't end up  having noise issues, though we did use the white noise feature on the clock. Amenities were very nice for this level hotel. Workout room had decent amount of equipment and all appeared to be in good working order. Breakfast was much better than most - eggs, cheese, excellent condiments, sausage, potatoes, waffles, fruit &amp; cereal. BEWARE! If you're booking this because it looks like a nice DFW Airport hotel, THE SHUTTLE DOESN'T RUN ON WEEKENDS!! When we called from the airport on Sat. to have the shuttle come, we were met with, "Oh... I see you booked this through Priceline. Our shuttle doesn't run on the weekends."  We ended up spending over $50 for a cab to &amp; from the hotel (we left on Sunday) which ended our trip on a sour note. We certainly would have selected another hotel had we known. The front desk said it was Priceline's fault for not making that clear, but I had looked at StayBridge's site, and it's very deceptively worded. They state in their "Amenities" section: "Guests can get around on the complimentary shuttle, which operates within 5.00 mi." They state the DFW Airport is 4.2 miles. Under bullet point amenities they say " Free airport transportation" and in another bullet, "Free area shuttle." The fact that the shuttle doesn't run on weekends isn't on their site AT ALL. The only way they may claim we should have known is the bottom section, under "Business &amp; Other Amenities" where they state, " A roundtrip airport shuttle is complimentary at scheduled times." Again, no mention that it doesn't run on weekends, and after seeing the other 3 references to free shuttle - specifically to/from the airport, I  stopped reading because I found what I was specifically looking for - a free shuttle. If it weren't for the shuttle issue, I would have probably given them a 4, but when you're specifically trying to plan a trip and stay on budget and get  hit with an unexpected cost like that, it's infuriating - esp. when there were so many other great choices we could have made... Felt deceived, and as though we had 2nd class service due to not booking directly with StayBridge...More</t>
   </si>
   <si>
+    <t>Cardcat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r440488638-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -411,6 +435,9 @@
     <t>Decent hotel for quick business trip. The hotel is located right off the freeway, close to lots of shopping and restaurants. Pros - good, hot breakfastPoolEvening activities, including some happy hours during the weekShuttle ServiceRooms have kitchenettesCons - Wifi really slowShuttle service requires 24 hour noticeMore</t>
   </si>
   <si>
+    <t>Ken K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r438640826-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -429,6 +456,9 @@
     <t>Overall the hotel was a decent place to stay. The bed was a little soft for me but I know everyone is different. The issue was the business chair in the room was so disgusting that I could not use it. I took a picture. The arms and and back had the material missing and ripped off. The other issue was there was a lot of black mold in the shower. Surprising since everything else looked clean and up kept.  Hopefully the management will see this and take action. The employees I encountered were all helpful and friendly.  The kitchen in the room was well stocked and clean. TV and AC all worked great. Windows had 3 levels of curtains that made for a good night sleep.More</t>
   </si>
   <si>
+    <t>ANA H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r395961807-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -453,6 +483,9 @@
     <t>Located in a very nice area of Irving DFW Airport, Walmart, movie theater, and many restaurants located nearby which is a plus. The lobby is beautiful, and front desk staff was very friendly. I had a queen studio suite that was amazing only thing I didn't like was I didn't have a bathtub. Hotel offers wifi and free breakfast which was a plus. The hotel offered a gym, and free washers and dryers that I utilized the night before my flight back home. My only complaint is that the walls are sort of thin I could hear my next door neighbor snoring and I could hear the kids running up and down the hallway and slamming of the doors.The hotel offers free shuttle to the airport which I also utilized which was a plus. Next time I'm in town I will definitely be staying here again.More</t>
   </si>
   <si>
+    <t>DrMarc9491</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r393965639-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -471,6 +504,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>S-SOsborn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r393377071-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -486,6 +522,9 @@
     <t>Clean hotel in quiet area.  Close to restaraunts and DFW airport.  Nice breakfast buffet.  If you haven't tried a StayBridge property, you should.  Very comfortable rooms.  Nice pool area, wasn't very busy during our stay.  Friendly staff were helpful and ready to help when needed.</t>
   </si>
   <si>
+    <t>William S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r385309045-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>marcus47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r384095137-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>The location is great. Right off of the 635. It is surrounded by retail,restaurants and shopping.Because of the area, no room would be a bad room. The rooms are suites; frig, sink, dishes..etc. The property has a small basketball court of off the back of the hotel with a pool. I used it for a weekend away/conference and honestly I could have gone with either use for this location. There is a conference room, complimentary breakfast and most importantly dog friendly with a non-refundable deposit. Oh, I travel ALOT...The water pressure in this hotel is second to none! It is also about ten minutes from the now last year for Valley Ranch. Not a Cowboy fan however it is a House of Legends....ANYWAYI would definitely stay here again and I would recommend it for either business travel or a quick stop hotel in a good location.More</t>
   </si>
   <si>
+    <t>Elenisav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r375602528-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -537,6 +582,9 @@
     <t>Hotel was in a great location, near a few chain restaurants and right down the road from a Wal-Mart. When we arrived, only one of our two rooms was ready, but the staff allowed us to check in to that room while we waited for the other. It was ready within the hour.Staff was super helpful in answering my questions. The rooms are spacious and comfortable. Everything was good. I would definitely stay here again!</t>
   </si>
   <si>
+    <t>LeRoy_far</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r336270415-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -552,6 +600,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Bill F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r315229792-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -571,6 +622,9 @@
   </si>
   <si>
     <t>Stayed 2 nights over the labor Day holiday. Room was a upgrade room from a one-bedroom suite to a 2 bedroom suite on AAA rate (which was a rare but pleasant surprise) Both rooms were clean and spacious and each bedroom and the living room area had their own TV's. Kitchen area was nice had had a decent size fridge. Beds and pillows were very clean and room a very quiet. Hotel has a nice size outdoor swimming pool that was larger than most comparable hotel swimming, something my kids enjoyed very much. Hotel is in a suburban area next to a good size shopping center that was very convenient with lots of places to shop and eat. Very close to DFW Airport, though airplane noise was not noticeable. Staff was very friendly and helpful. Pretty good continental breakfast. Would seriously consider staying again in the future. Thank you for a great stay!More</t>
+  </si>
+  <si>
+    <t>BradM228</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r315004043-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
@@ -600,6 +654,9 @@
 Room - We had a 2 bedroom suite. The overall room size for a 2 bedroom was quite small. The bedrooms were ample, but the living room was tiny!!! (Smaller than any other 2 bedroom I've stayed in).  I gave this hotel a 3/5 because the rooms are a little worn. Trim peeling from the floor, The door frame around the door was completely separated from the wall, and the 'hard wood (really tile)' floor was bumped up from the sub floor. (When you walked, you could feel where the tile came unglued and would bounce' up and down.  The finish on the tiles had worn off, and parts were smooth, while other parts sticky.  The doors to the bathrooms had weird 'spray' marks on them, showing they hadn't been wiped down in...I stayed here strictly on feedback left and ratings. I assumed it was going to be a great hotel. I will say this place was average and is in need of some TLC!!! It was clean, which is the most important in my mind.Staff - VERY friendly. Everyone here was super nice and a pleasure to work with.Arrival - The carpeting behind the front desk is a wreck. It's poor appearance started to make me worry about my room!!! If the rooms were to be a sign of the poor state of the horribly dirty, bunched up carpeting I was going to be in trouble.Room - We had a 2 bedroom suite. The overall room size for a 2 bedroom was quite small. The bedrooms were ample, but the living room was tiny!!! (Smaller than any other 2 bedroom I've stayed in).  I gave this hotel a 3/5 because the rooms are a little worn. Trim peeling from the floor, The door frame around the door was completely separated from the wall, and the 'hard wood (really tile)' floor was bumped up from the sub floor. (When you walked, you could feel where the tile came unglued and would bounce' up and down.  The finish on the tiles had worn off, and parts were smooth, while other parts sticky.  The doors to the bathrooms had weird 'spray' marks on them, showing they hadn't been wiped down in a while.. Or if they were, someone sprayed something on the glass inserts that will never come off.  The beds were mediocre and quite uncomfortable.  Over all, these rooms are in need of remodel.  I will say, the hotel was clean, so that was good from that point.Food - The free breakfast was great! While not vast, it offered many items (some hot, some cold) which was a PLUS!!Location - Nice and quiet suburb area. You didn't realize you were near the airport, and were definitely located in a NICE area.This hotel was convenient for our needs. I wouldn't say that I would stay here again however.More</t>
   </si>
   <si>
+    <t>Gabriela R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r293757425-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -618,6 +675,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>HelenS1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r291873721-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -642,6 +702,9 @@
     <t>After a three week guided tour it was nice to relax for five days at the Staybridge suites. We were pleasantly surprised to have free laundry facilities and appreciated the good breakfasts every morning. Three out of the five days we stayed there were even a free social evenings with great food supplied as well. The shuttle to the Grapevine Mills shopping centre and the airport was very welcome too.The only downside was that we were on the lowest level right opposite the meeting rooms, so the noise was loud at times. We had originally booked a king size suite and on our arrival we were given a queen room. We mentioned it the next morning and were moved into the room we booked. It just was a shame it was opposite the meeting rooms. The staff were fantastic and very friendly. Would definitely highly recommend!!More</t>
   </si>
   <si>
+    <t>Vicki M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r287711143-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -660,6 +723,9 @@
     <t>My husband and I stayed here for two nights after booking online through the IHG website.  We booked a King room for a Wednesday and Thursday nights stay however upon arrival we were told that our "type" of room was unavailable and we were upgraded to a very nice two bedroom/two bath suite.  Even though we didn't use the second bedroom it was very nice to have the second bedroom.  The room(s) were well appointed with a mini kitchen with full size refrigerator, coffee maker, sink and microwave.  The breakfast was above average for the pre-cooked hotel norm.  The only downfall/ negative that I can say about this property is that apparently this was not originally a Staybridge Suites.  The halls are terribly narrow and the elevator did not appear to be air conditioned.  It smelled of sweaty kids.  Overall a nice place which we will stay at again.More</t>
   </si>
   <si>
+    <t>AddictedToTravel35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r252323686-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -678,6 +744,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>japrice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r251973536-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -705,6 +774,9 @@
     <t>I spent a week here on business.  All the employees were great, Juan and Sweta were a huge help.  The shuttle service to/from the airport was awesome!!!  This place is close to several shops and restaurants.  Several evenings, they have complimentary dinners.  Free dinner and drinks(alcohol included), which is amazing to me.  I have never seen that.  The food was great, limited selection, but great nonetheless.  The rooms were spacious and clean.  The finishing touches(caulking &amp; tile work) were subpar.  But overall, a great experience.  I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Lyssa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r242556115-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -732,6 +804,9 @@
     <t>This hotel was great! The staff were very friendly and the rooms have a lot of space. It feels very home-y. It was nice to have more than just a room with a bed and two chairs it in! The kitchenette was nice to have, even if we did not get a chance to use it! Nice little living room, bedroom, bathroom. Shower had great water pressure and the bed was very comfortable. They had a nice variety for breakfast. Would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Sean M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r234217817-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -759,6 +834,9 @@
     <t>We arrived before our check-in time  and the staff was very welcoming. The facility and room were very clean and well maintained. We both slept soundly and enjoyed the cooked breakfast! I particularly embodied the Wolfgang Puck coffee! Should we find ourselves in the Dallas area again, we would certainly stay again!More</t>
   </si>
   <si>
+    <t>ahoteldziner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r234137397-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -778,6 +856,9 @@
   </si>
   <si>
     <t>arrived at the hotel around midnight and front desk clerk was very courteous and helpful. hotel was immaculate and has a wonderful pool and spa that I had to myself. spent two nights here for business travel and was able to rest well and find restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>Lovingstar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r229475172-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
@@ -815,6 +896,9 @@
 Breakfast is ok, but nothing to call home about. Room was clean and kitchenette has all amenities, but is not...The hotel was overall ok with its aim to bring some perks to its customers. They offer a social evening gathering with free snacks and drinks 2 or 3 times as week. It also features a self service free laundrette, free movies to borrow and a pantry from which to buy snacks or items you may need during your stay. There is also a free shuttle service running the 3km or so round the hotel.The receptionist who was there for most of our stay is not very welcoming and smiling. It gives an awkward feeling of "leave me alone" from her.Apart from that, we were also "ripped" by the taxidriver which the hotel called for us - no meter and not very friendly neither. He ripped us 30USD to bring us to a mall 5km away, maximum! He lied that it was the normal rate to go to the airport area, but going to a mall should not count airport charges for example. We complained to the hotel when coming back, and called our "own" taxi on the next trip.We also encountered noise issues with the room assigned to us - annex to the elevators! Very inconvenient with our one-year old but the next day they readily switched us to another room when we raised the issue. Breakfast is ok, but nothing to call home about. Room was clean and kitchenette has all amenities, but is not cleaned over the week-end unless explicitly requested.It's not really an "airport" hotel as its name suggests.More</t>
   </si>
   <si>
+    <t>Patrioticpatriot1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r222523261-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -839,6 +923,9 @@
     <t>What drew us to this hotel was location/price/amenities. But as my daughter says it "this hotel was AMAZING". Very nice, clean room. The pool was very nice. They have a barbecue pit right by the pool- that made the trip for us. The movie room was great- a few kids decided to pick a movie, share that time and make new friends :)The staff was awesome and do helpful. There are even little extras like a library and movies available at the front desk. More than I expected and that's always a plus!More</t>
   </si>
   <si>
+    <t>cuinthemoon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r218109689-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -863,6 +950,9 @@
     <t>Many thanks to the hotel for getting us a room before the normal check in time. We had slept in the car the night before the flight to dallas and didn't except to have a problem when we got there, but it was hot and my husbands meeting was at 12:30. Thankfully they got us in so we could get a shower. It was close to the airport, the hotel was clean. Breakfast was nice and the pool refreshing and clean. Many thanks!More</t>
   </si>
   <si>
+    <t>Pibus G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r215940120-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -890,6 +980,9 @@
     <t>This hotel has been a very nice surprise, great rooms, cinema,nice breakfast corner, i couldn't ask for more. The only problem i found was the air conditioning that didn't work at the reception. I would suggest the staff to know more about tourism in Dallas and Fort Worth because tourists like us sometime need a help and it' s not good to hear at the reception:"i don't know, i'm not from here."More</t>
   </si>
   <si>
+    <t>Steve P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r209466553-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1010,9 @@
     <t>First time staying at a IHG Staybridge, I was pretty happy with my one nighter and will definitely consider the chain for future business trips. Rooms were large with a full kitchen AND dishwasher. Bathroom was clean. Staff was friendly and helpful. I would recommend this hotel as a place to stay in Dallas.More</t>
   </si>
   <si>
+    <t>Jeff L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r209133977-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1029,9 @@
   </si>
   <si>
     <t>The staff has been super helpful, I have been staying here for the last several weeks on business, It's location is very convenient, easy access to shopping and restaurants. Plus it is much more quieter than staying close to the airport.  Plus I cannot say enough about the helpfulness of the staff, the front desk clerks have went out of their way on multiple occasions to make sure I got what I needed and they have been a pleasure to work with when making advance reservations.The rooms and beds are much more comfortable than the place I had been staying at.More</t>
+  </si>
+  <si>
+    <t>Dean M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r207895035-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
@@ -978,6 +1077,9 @@
 The staff were not very friendly.  I had to wait at the front desk while the person finished what they were doing on their cell phone.  If you were willing to wait your concern would be addressed but it didn't seem to be...We visited the DFW area on a shopping trip and picked this hotel for the many amenities.  My family enjoyed the full size fridge, microwave and cooktop for preparing an evening snack.This is the first hotel I have stayed in that had complementary laundry machines.  It was a great benefit that we really enjoyed.  Our kids enjoyed the large movie theater.  It was a nice place to relax.The pool area is nicely landscape with a nice gazebo.  There was also a basketball court that was a fun place to let go of some energy.Our bedroom with two double beds was quite tight with not much room to walk around the beds.  The beds were not the most comfortable... I would wake up stiff and happy it was morning.  Water pressure in the bathroom was very low.  Maintenance was able to improve it a little, but it was still lower than I would have expected.The breakfast and evening reception has quite a lot of selection bu the food quality was poor.  We thought we would have breakfast here but often went elsewhere due to the quality of the food.  Expect prepared food warmed up.The staff were not very friendly.  I had to wait at the front desk while the person finished what they were doing on their cell phone.  If you were willing to wait your concern would be addressed but it didn't seem to be their first priority.More</t>
   </si>
   <si>
+    <t>Ralff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r205652139-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1104,9 @@
     <t>Great stay.  Quiet hotel.  Great front desk service.  Large pool and hot tub.  Next to shopping area with many restaurants.  Easy access from DFW.  Room is large, furniture was new.  All the amenities you want in this style of hotel.  Breakfast has a number of options.  Social hour is welcoming and lasts util 7:30.  Free wifi with decent speed.  Large number of electric sockets in all rooms for all the gadgets.  Room lighting works with color scheme, has dimmers and is relaxing.  Lots of TV channels.  Very good hotel.More</t>
   </si>
   <si>
+    <t>Andrea4141</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r205146609-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1131,9 @@
     <t>Great hotel!  Just stayed the weekend for a youth baseball tournament and everything was perfect!  Raquel, at the front desk was awesome!  She created a wonderful first impression at check in and her helpfulness throughout our stay was excellent!  The pool, basketball court, movie room and outdoor patio area were very nice and provided plenty of things for the kids to do!  Will definitely be staying there again!More</t>
   </si>
   <si>
+    <t>guido d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r203637076-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1161,9 @@
     <t>great service, large rooms with kitchen, swimming pool and training room. Very clean. little noisy but in the average. typical continental breakfast and laundry is also available for guests. Wi-fi available. i will return for sureMore</t>
   </si>
   <si>
+    <t>LoboCPA1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r191035134-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1191,9 @@
     <t>What more could one want.  Rooms done in what I refer to as "Modern" style.  Compact, but very efficient &amp; cozy layout.  Excellent arrangement for the business traveler alone; or, a couple; one night; or, several.  Has become one of our "go-to" places.  Incredible bedding!!!In great area of DFW Metroplex for safety, lots of quality restaurants &amp; shopping.  Superb freeway access.  Shuttle to DFW Airport ( check hours available ).More</t>
   </si>
   <si>
+    <t>HoganHospitality</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r189342667-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1221,9 @@
     <t>We were conducting a week long professional certification program and wanted to compliment this hotel.    The facilities were in top condition, the staff was responsive in every area and the amenities were ahead of the competition.More</t>
   </si>
   <si>
+    <t>xxyyzzaabb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r187704365-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1245,9 @@
     <t>Planned a four night stay that was extended by inclimitate weather.  The rooms are great.  We had a Queen Studio, it has a queen bed, sofa, 2 footstools Table/Desk, Small Kitchenette, Shower &amp; Toilet with sink in dressing area.  We like these kind of rooms.  Gives you  space to kick back watch a little tv and with the kitchenette you don't have to eat out as often.  This hotel has an evening social Tuesday through Thursday, which includes light meal, desert, beer, wine and soft drinks.  They also serve breakfast daily which includes some kind of egg (scrambled, omlet, etc.), usually a meat, with breads, pastries, boiled eggs, cereals (hot &amp; cold).  The staff here is excellent.  We will return to this hotel when in the area.More</t>
   </si>
   <si>
+    <t>margomix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r183477551-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1275,9 @@
     <t>I  very impressed with the genuinely caring hospitality that I received from the staff.  Sir Lancelot (Lance) provided great service and was a wealth of information!  My room was spacious, well appointed and clean.  It was very helpful to have a kitchen in my room making my suite feel like "home away from home".  The price is quite affordable and the location is great with many restaurants within walking distance.  The complimentary buffet breakfast that is provided is more than adequate and the complimentary transit to and from the airport is a definite plus.  I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Kevin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r180060077-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1305,9 @@
     <t>To start it's beside Fry's Electronics, 24 hour Fitness, best buy and so many restaurants walking distance (but there is a shuttle). Shuttle goes 3 miles and to Dfw but not Love Field. But it has movie room with 105" TV, grilling area, breakfast included, managers reception dinner on select weekdays, pool, jacuzzi, 24 hour workout room, FREE laundry, business center, HD cable with free in demand from time warner, full kitchen in room (no oven). Check out leather floors in lobby, crystal chandeliers, fireplace, basketball court and beautiful decor, it's an energy conscious hotel with a card you insert by door and it activates power in room, will certainly be back. Only 10 mins from grapevine mills, 5 mins to Tinseltown movies and Wal mart. Good job guys on a great hotel. Only disappointment was you do not get but half points for your brand from IHG rewards. More</t>
   </si>
   <si>
+    <t>kgnzo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r178628991-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1332,9 @@
     <t>I stayed here for a businesses convention and was extremely happy with my entire experience from the moment I was picked up from the airport to my check in my stay and then my departure the staff was exceptionally happy and friendly it made my time here very satisfying the rooms are beautiful and clean I love the little kitchens they have everything you need the socials serve great food and have a fun atmosphere. I am so excited to come back again soon!!More</t>
   </si>
   <si>
+    <t>jarboy2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r158592917-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1362,9 @@
     <t>Shopping And Food location was a walking distance to hotel.The staff was very friendly to me. When I needed help the staff quickly assist me.I  will requirement this hotel because I had a great hotel stay. Hope to come back soon.More</t>
   </si>
   <si>
+    <t>ChewInRI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r158527868-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1383,9 @@
     <t>Staybridge Suites has become my hotel chain of choice now when travelling on both business and personal trips.  And this property just outside of the DFW airport in Irving, TX did not dissappoint.  The hotel is easy to find and is right off of the highway.  It is located near a number of shops and restaurants if you decide to go out for dinner locally.  Normally I have a studio suite, but this time I had a 1-bedroom king suite, and it was awesome.  The decor is super swank and actually pretty luxurious for the price point.  Everything feels new and updated.  My favorite things about all Staybridge hotels and this one was exactly the same, is that there are plenty of outlets for electronic gadgets (and they are in logical places), and the free wi-fi is super fast.  I found it really easy to get work done and to get a great night sleep.  The bed was super comfy and the shower was really good too.  My only complaint about the room itself is the faucet in the bathroom, while really cool, did not produce enough pressure and it made it hard to shave in the morning!  The free breakfast in the morning is good and a step above most other chain hotel's free breakfasts.  I really enjoyed this stay and will stay here again the next time I am in the DFW area.More</t>
   </si>
   <si>
+    <t>MichaelQ725</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r158026732-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1410,9 @@
     <t>Very friendly staff and a good property made my business trip a lot better.  Great style and up to date looks and a Theater room on top of it was all the better.  The social they have mid week is nice, only thing that wasn't on top was the breakfast it left a lot to be desired but it was free and there were a couple of decent items there to choose from.More</t>
   </si>
   <si>
+    <t>William Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r157016948-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1296,6 +1434,9 @@
     <t>I stayed here five times last summer. I was able to call and negotiate a discount rate to save my company some money on travel expenses. They were able to accommodate my extra bicycles and the staff where very friendly.More</t>
   </si>
   <si>
+    <t>Brad C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r155278425-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1464,9 @@
     <t>I stayed at this hotel for nearly six months while on a job assignment.  The hotel staff is very friendly and by the time I left I knew most of them by their first name.  They recently hired a new GM and she is really making some good changes. It may seem little, but she fixed a washing machine that had been out for several months during my stay.  She also had equipment in the fitness room repaired so that it all could be used.  The hotel provides a reception 3 nights a week and even the food quality improved with the new GM.  You can't get much closer to the DFW airport.  I could leave the hotel, park, and take a shuttle and be at my gate in less than 30 minutes.  There are many restaurants within 1-2 miles of the location. You can have fast food or a nicer meal with little driving.  They also provide shuttle service if  you are there without a car.  It is definitely worth checking if you are in the DFW area.The only drawback is that if you are on a lower floor you can hear movement in the rooms above you.  If you have a noisy group you might sleep well.More</t>
   </si>
   <si>
+    <t>Razorbackhotel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r152445291-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1491,9 @@
     <t>I am a Director of Sales at another IHG property in Fayetteville Arkansas and I have to say that I know to always expect the best when staying in other properties like my own but they exceeded those expectations and went above and beyond for me. I travel into that area a lot and I am very happy to say that I have found my hotel of choice. The way the front desk handles issues with guests is impeccable! Our AC was out the first night and we called and they didn’t even hesitate to try to come fix it, give us a fan, and ensure that their engineer would fix it that next morning. After the engineer came up they called to make sure it was fixed and still working properly.More</t>
   </si>
   <si>
+    <t>bpvarian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r147166554-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1521,9 @@
     <t>Was greeted and checked by AJ.  the hotel seems very new, and we were impressed.  Whoever built this hotel skimped on every corner possible.  It is really the definition of lipstick on a pig.  As you walk to the room (getting off the elevator on the top floor), you can feel the floor boards under the carpet coming up.  The furniture looked very cheap and was starting to tear, under what you woudl assume would be normal wear in tear given the newness of the hotel.Walking around in the kitchen and bathroom (seperately) you could feel the tiles starting to come up as you walked around.  It was as if the builder forgot to butter the back of the tiles - they were literally popping up.In the master bath, you could see where caulk was missing (in places) where the tiles hit the bathtub - an easy source for water to get in between the cracks and start to ruin their pretty building.  this hotel could have been AWESOME had the bulider not cut so many corners.  I hate to think what kind of condition it will be in 10 years.  The staff was great, and the morning breakfast was pretty good.  nothing special.More</t>
   </si>
   <si>
+    <t>mogon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r145070901-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +1542,9 @@
     <t>Arrived very late at night.  Front desk clerk was very helpful in getting me moved to a first-floor room.  Room was lovely and nicely decorated.  HVAC was a little squirrely at first but then settled down.  "High speed" internet was terribly slow; sadly this is my experience at too many properties of every brand.  Breakfast was excellent; some of the best biscuits and gravy I've had at any hotel.  A real "steal" on a Pointsbreak for 5K points.  It is a little further from DFW (and more complicated to get to) than staying at the hotels on the south side of the airport; plan more time to return your rental car and have a good GPS because it can be confusing)More</t>
   </si>
   <si>
+    <t>MindyD441</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r143488567-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1569,9 @@
     <t>I stayed at this hotel with my Best Friend in a Double and we enjoyed having the separate living room and bedroom.  The Mattresses were very comfortable.  I enjoyed the stand up shower as well.  We also had a room over looking pool.  We enjoyed seeing the color changes in the water.  They also have a movie theater on the first floor.  We didn't get a chance to use it.More</t>
   </si>
   <si>
+    <t>Logan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r138257818-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1590,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Edelan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r129673497-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +1618,9 @@
   </si>
   <si>
     <t>Hotel rooms and property are nice. The breakfast is typical continental and appropriate. During my stay the tv did not work for two days. The first night I called the front desk I was told they'd call the cable company and call me back. I never gotta call back. On my second call 2 hours later, I was told there was nothing they could do. No offer of changing rooms or any other suggestions. More</t>
+  </si>
+  <si>
+    <t>alphabetty</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r127535165-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
@@ -1485,6 +1647,9 @@
 Now on to the annoyances of the hotel.  I called ahead and asked for...I stayed at the Stabridge at DFW for four days with my husband and daughter in April of 2012....right during the big tornado that hit Dallas....and the hotel was overbooked, so that might influence the review a tad....but I do believe the true test of a hotel is how they handle a crisis and overbooking....First off...the positive.  The hotel is REALLY nice.  The lobby and the rooms are furnished beautifully and very well kept.  The hotel pool is nice as well and they furnish towels and nice chairs around the pool so you enjoy it.  The free breakfast is plentiful altho the powdered eggs left something to be desired (the last day we were there they had biscuits and gravy....the best breakfast all week) and to my husband's delight the waffle iron was in the shape of the state of Texas.  Waffles were good....everything was edible but not *great*.  Tuesday, Wed and Thurs night they had a "happy hour" with a dinner type buffet.  GREAT idea for business travelers or people who are trying to keep their costs down.  It too was decent but not great. The decor was beautiful.  The beds were comfortable.  The rooms all have kitchens which is a NICE touch and they are beautiful and well kept.  It's nice to have a fridge and freezer in your room just in case.Now on to the annoyances of the hotel.  I called ahead and asked for a crib which was waiting for us in our room....but they put us in a room with no bath tub.  Now...if I'm asking for a crib I have a small child and usually small children don't take showers.  I asked to change rooms (hoping they'd have a one bedroom, I was willing to pay the upgrade!) but they told me they were completely sold out.  OK.  I get that, but I see a whole stack of reservations that haven't checked in yet and you're telling me you can't switch my room for one with a bathtub???  Nope.  Not over the entire 4 days did they ever have a room with a bathtub available.....which having worked in the industry I know is false.  They just didn't want to clean our room more than once. (they offer "light housekeeping meaning they make your bed and change your towels during the week.  Once every seven days of your stay they will clean your room).  No rooms available to upgrade (and pay the difference) even tho my husband is a regular guest and is a preferred member. Okkkk....Next....the room comes with 3 bath towels and two wash cloths.  Period.  I asked for additional towels and they brought them, but when housekeeping came the next day I got 3 towels and 2 washcloths....we replayed this scenario every single day of our stay.  I finally asked the chick why not just leave 5 towels and she told me that that was against policy, I got 3 towels each day and if I wanted more I had to ask.  Same with my extra blanket.  It got swiped on day 2 and I had to ask for another one.  Really?? It's annoying.  OHHH and banging on the door even tho there is a "do not disturb" sign?? Really????Lastly....we had a tornado while in the hotel.  They do not have a tornado alarm, or any sort of system alerting guests to an impeding disaster.  They expect you to know that there is a tornado coming and come downstairs and ask what to do.  The staff wasn't very helpful and it was my husband who ushered us into the media room (the hotel staff left guests sitting in the lobby area which had an entire wall of windows!!!!!!) to be safe.  WAY not cool.More</t>
   </si>
   <si>
+    <t>BC97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r124122246-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1510,6 +1675,9 @@
 The suite is rather small, but is so nicely decorated and furnished that it felt extremely cozy and comfortable.  The dark woods are warm and rich and the fixtures are exquisite, not what one would find in a typical hotel.  The tiles in the kitchen and bathroom are made to look like wood floors and are very nice.  There's a kitchen with a full size refrigerator, flat top stove, microwave, sink, granite counter tops, plenty of cabinets and a pantry.  There...I stayed here on the first couple of days in February 2012 and chose this hotel based on the reviews.  I otherwise, didn't really consider Staybridge Suites in the past.  I was truly wowed by the room in which I stayed (suite 101) which was a one bedroom suite.First things first, the hotel is located right off Interstate 635 (LBJ) freeway and is relatively close to the airport (about 15 minutes from the rental car area).  There are plenty of restaurants just a short drive along the service road.  The exterior of the hotel is rather basic looking and doesn't do justice to what I found inside.  Check-in was easy and the front desk person was very nice.  When I found out my room was on the first floor, I asked for a higher room, but none were available with a suite, only studios.  So I opted to keep the one bedroom suite and am glad I did.The suite is rather small, but is so nicely decorated and furnished that it felt extremely cozy and comfortable.  The dark woods are warm and rich and the fixtures are exquisite, not what one would find in a typical hotel.  The tiles in the kitchen and bathroom are made to look like wood floors and are very nice.  There's a kitchen with a full size refrigerator, flat top stove, microwave, sink, granite counter tops, plenty of cabinets and a pantry.  There are also a couple of very nice bar stools at the counter right next to the living room area.The living room is rather small and feels a little bit cluttered with a sofa and large (and very comfortable) leather chair.  There are two small ottomans in the middle and a work desk with another comfortable work chair.  The lighting is very relaxing in the room.  There's also a remote control thermostat that can be adjusted just by pointing it at the ceiling.  Very cool.  Although a little tight, I found the living room area to be pleasant.The living room has a 32" LCD HDTV and all the channels are truly in HD!  The TV selection is very different from most hotels.  They have Time Warner cable and it includes a package with a substantial set of channels and even a channel guide similar to what you might find at home with listings of shows coming up and descriptions.  Loved it!  There's also free on demand, but not the typical free preview on demand found in most hotels.  These were on-demand shows like you might find at home too.  They had about 20 or so networks on demand such as CBS, ABC, TNT, Cartoon Network, HBO, etc.  I watched a couple of episodes of Big Bang Theory I had previously missed.  The TV sits on top of a nice stand with storage underneath.  There's also a DVD player hooked up.There are double doors to the bedroom which has a comfortable king size bed, two night stands and another 32" TV on top of another stand with storage.  The bedroom is about the same size as the living room and was extremely comfortable.  There's an extra chair next to the bed too.Adjacent to the bedroom is the bathroom with a vanity and closet outside the bathroom door, then the toilet and a large shower behind the door.  There wasn't a tub in this suite which I prefer.  The shower is large and the water pressure was quite good.The hotel has a pool and fitness area which I didn't use.  There's also a theater with a huge screen, but I'm not exactly sure how it works to utilize it.  They have free breakfast and 'dinner' during specific hours.  The breakfast includes hot foods although I just had a danish and some fruit.  I didn't check out the food after work, but they had meatballs one of the nights I was there.There is also free high speed internet (wired and wireless).  I used the wired assuming it would be a bit faster and didn't have any issues with typical web surfing or checking e-mails.  I didn't do anything that would have required substantial speed.The only drawbacks I found were minor.  For example, being on the first floor, I had a view of parked cars right outside my window.  I usually like to keep the curtains open for natural light, especially in the morning, but didn't since everyone going by could see inside.  The light switch in the bathroom also turned on the loud fan.  I wasn't a fan of that.Here's a tip about the power saving option they have in the rooms.  The rooms require that a key be placed into a slot in the room to turn on the power (lights, TV, etc.) in the room.  If you take out that key, it also shuts off the TV's cable box and it takes a while to reboot it.  So be patient if anyone pulls that key out of the slot.All in all, I really enjoyed my stay here and find myself wishing I could have stayed longer (was only there 2 nights) in this little oasis away from home.  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Mrm2u2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r121103540-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1525,6 +1693,9 @@
     <t xml:space="preserve">Definitely will stay again, 2 toddlers and wife had plenty of room for for, the separated bedroom living area with kitchenette were great. Nice clean rooms and Restuarants within a mile Chilis, Cheddars, Razoos, Salt Grass just to name a few. Also next door is 24ht fitness, but fitness room is fine as well. Theater room for movie night, breakfast with waffles eggs, sausage, bacon, potatoes, fruits all were good. </t>
   </si>
   <si>
+    <t>Mike M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r120928195-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1546,6 +1717,9 @@
     <t>Let me start by saying I travel A LOT for work - about 200 days/year for the past 10 years.  Suffice it to say, I've stayed in plenty of hotels all over the country.  When you consider the friendly and accommodating staff, amenities (there's a theater room and free laundry!!), location and convenience, this is the best place I've been.  Everyone on the hotel staff, from maintenance to manager, is top-notch.  I stayed for 4 1/2 months and had my wife &amp; 3 kids stay with me for about six weeks of it.  The hotel staff made all of us feel right at home.  The kiddos loved the pool and the theater; my wife and I loved the proximity to restaurants and the 24-Hr Fitness (right next door...).  Even after my family returned to Colorado, several members of the staff continued to ask about them for the rest of my stay.  The pool was under renovation the last month or so while I was there - not a big deal b/c the weather had cooled off considerably by that time.  I could nit-pick about the size of the rooms (a little on the snug side) and some of the evening meals (hard to complain about free food, though...) but I've learned over the years not to sweat the small stuff.  No hotel is perfect, but this one is pretty close!More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r117094094-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1564,6 +1738,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>mom012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r115495216-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1582,6 +1759,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>ks-bike-rider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r112113455-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1603,6 +1783,9 @@
     <t>I have stayed here regularly over 3 years and the management teams seem to change with the seasons.  The current team has been depressing.  Shuttle service used to be available for grocery shopping or dinner, then it wasn't (this is an extended stay hotel).  The shuttle might or might not be picking up guests at the airport this week.  Groups might or might not be able to use the outdoor cooking facility this week.  The hot tub was "under repair" for over a month after the health department closed it.  The front desk was pleasant or snarly.  The inconsistent attitude toward customer service caused us to quit using this property for now.  I can't wait for the next palace purge so that we can go back there.More</t>
   </si>
   <si>
+    <t>Rougesvp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r109074864-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1618,6 +1801,9 @@
     <t>Immensely surprised by this hotel.  This was my first stay in this chain and will be the first of many if the others are of the same quality.Clean and impeccable service.Assisted capably throughout our stay by Sonja PHILLIPS, Dir. of Sales, on all matters business related.  Great conference facilities with all modes of presentation assistance.Excellent!  Thank you again Sonja!</t>
   </si>
   <si>
+    <t>RJwelch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r107802850-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1633,6 +1819,9 @@
     <t>Great property. Staff truly make you feel like a guest. Updated, upscale property for a fair price.Located in a great location with easy access to the airport and I635 to Dallas, as well as the George Bush Turnpike to areas north</t>
   </si>
   <si>
+    <t>frekwentflier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r101191651-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1651,6 +1840,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>wnytraveler09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r64854104-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1669,6 +1861,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>nomadinwanderlust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r60707067-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1687,6 +1882,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>drkbchiro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r54144392-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1708,6 +1906,9 @@
     <t>This hotel will really surprise you!  The ambience is amazing and the rooms are mordern and luxe.  I graduated from Chiropractic School and the location was perfect for my friends and family!  There is an outdoor cabana with grill and complementary breakfast and sunbreak wine hour!  The management was excellent and catered to our every need.  The kitchen is amazing and has all stainless steel appliances.  It was defitnitely a hit and my family was really impressed!  I rented out one of the rooms for a banquet setting which was extremely affordable.  I recommend this hotel whether its business or pleasure.  It leaves you wanting more.  Now my family are looking for Staybridge Suites in their area bc it was the best hotel that they had been to.  I normally don't leave reviews but I always check reviews.  Hopefully this helps someone greatly.Dr. Krystal B.More</t>
   </si>
   <si>
+    <t>SammiSanFrancisco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r23744317-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
   </si>
   <si>
@@ -1727,6 +1928,9 @@
   </si>
   <si>
     <t>very nice hotel, room was lovely, clean and comfortable, just the service need some improvement. When I book this hotel online, hotel amenities included "free airport shuttle", I was checked in at a weekend, the staff told me free shuttle only available on Monday to Friday, I was a bit disappointed, if I knew that before, I won't choose this hotel, there are plenty of hotels provided free shuttle service 7 days a week. The staff said he can help me to call a cab when I leaving, I told him I need to leave at 9 am at the next day morning, he promised he will call the cab come and wait for me before 9 o'clock, but he made a note to the next shift, call a cab for me at 9 o'clock, the girl who working at the next day morning, call the cab around 8:55, I got the cab at 9:30, at last, I spent $30 more wholly unexpected and almost missed the flight.More</t>
+  </si>
+  <si>
+    <t>worldtravellerusa1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d1026120-r23253181-StayBridge_Suites_DFW_Airport_North-Irving_Texas.html</t>
@@ -2252,43 +2456,47 @@
       <c r="A2" t="n">
         <v>58675</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177974</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -2306,56 +2514,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58675</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>97275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2367,56 +2579,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58675</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>177975</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2434,56 +2650,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58675</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177976</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2501,56 +2721,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58675</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177977</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2568,56 +2792,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58675</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177978</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2635,56 +2863,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58675</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>19375</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2700,56 +2932,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58675</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177979</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2765,56 +3001,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58675</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>60893</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2832,56 +3072,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58675</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>41818</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2895,50 +3139,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58675</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177980</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2958,50 +3206,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58675</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177981</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3021,50 +3273,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58675</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3084,50 +3340,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58675</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177982</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3147,50 +3407,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58675</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177983</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3210,50 +3474,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58675</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177984</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3273,50 +3541,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58675</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>5705</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3334,50 +3606,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58675</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>66455</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3389,56 +3665,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58675</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>177985</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3452,50 +3732,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58675</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177986</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3511,56 +3795,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="X21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58675</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>14239</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3572,56 +3860,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="X22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58675</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177987</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3635,50 +3927,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58675</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177988</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3690,56 +3986,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58675</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177989</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3757,56 +4057,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="X25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58675</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>9933</v>
+      </c>
+      <c r="C26" t="s">
+        <v>250</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3818,56 +4122,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="X26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58675</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177990</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3885,56 +4193,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="X27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58675</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177991</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3952,47 +4264,51 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="X28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58675</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155946</v>
+      </c>
+      <c r="C29" t="s">
+        <v>278</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -4009,47 +4325,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58675</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>42990</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -4066,56 +4386,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="X30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58675</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177992</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4131,56 +4455,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="X31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="Y31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58675</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C32" t="s">
+        <v>306</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4198,56 +4526,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="X32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58675</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>9603</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4269,56 +4601,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58675</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>17077</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4340,56 +4676,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="X34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58675</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>67097</v>
+      </c>
+      <c r="C35" t="s">
+        <v>333</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4411,47 +4751,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="X35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58675</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177993</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4478,56 +4822,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="X36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58675</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177994</v>
+      </c>
+      <c r="C37" t="s">
+        <v>351</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="O37" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4549,56 +4897,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="X37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="Y37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58675</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177995</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4620,56 +4972,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="X38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58675</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177996</v>
+      </c>
+      <c r="C39" t="s">
+        <v>371</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="J39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4691,56 +5047,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="X39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="Y39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58675</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177997</v>
+      </c>
+      <c r="C40" t="s">
+        <v>381</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="K40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="L40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4764,50 +5124,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58675</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177998</v>
+      </c>
+      <c r="C41" t="s">
+        <v>389</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="J41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="K41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="L41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4829,56 +5193,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="X41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="Y41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58675</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>6280</v>
+      </c>
+      <c r="C42" t="s">
+        <v>399</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="J42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="K42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="L42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4890,47 +5258,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="X42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="Y42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58675</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177999</v>
+      </c>
+      <c r="C43" t="s">
+        <v>409</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="J43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="K43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="L43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4957,56 +5329,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="X43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="Y43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58675</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>418</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="J44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="K44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="L44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5028,56 +5404,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="X44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="Y44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58675</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178001</v>
+      </c>
+      <c r="C45" t="s">
+        <v>428</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="J45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="K45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="L45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5099,56 +5479,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="X45" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="Y45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58675</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C46" t="s">
+        <v>435</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="J46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="K46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="L46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5170,56 +5554,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="X46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="Y46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58675</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>40193</v>
+      </c>
+      <c r="C47" t="s">
+        <v>444</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="J47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="L47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5241,56 +5629,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="X47" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="Y47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58675</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>31207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>452</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5312,56 +5704,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="X48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="Y48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58675</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178003</v>
+      </c>
+      <c r="C49" t="s">
+        <v>462</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5383,56 +5779,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="X49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58675</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178004</v>
+      </c>
+      <c r="C50" t="s">
+        <v>471</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="J50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5454,56 +5854,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="X50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="Y50" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58675</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178005</v>
+      </c>
+      <c r="C51" t="s">
+        <v>481</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="J51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="K51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="L51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="O51" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5525,56 +5929,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="X51" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="Y51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58675</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178006</v>
+      </c>
+      <c r="C52" t="s">
+        <v>488</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="O52" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5586,56 +5994,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="X52" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="Y52" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58675</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178007</v>
+      </c>
+      <c r="C53" t="s">
+        <v>497</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="J53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="K53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="L53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -5657,50 +6069,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58675</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>35916</v>
+      </c>
+      <c r="C54" t="s">
+        <v>504</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="J54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="K54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="L54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5712,56 +6128,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="X54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="Y54" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58675</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178008</v>
+      </c>
+      <c r="C55" t="s">
+        <v>514</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="J55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="K55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="L55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5785,50 +6205,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58675</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178009</v>
+      </c>
+      <c r="C56" t="s">
+        <v>521</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="J56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="K56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="L56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5852,41 +6276,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58675</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>28720</v>
+      </c>
+      <c r="C57" t="s">
+        <v>529</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="J57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="K57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="L57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -5915,50 +6343,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58675</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>3220</v>
+      </c>
+      <c r="C58" t="s">
+        <v>535</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="J58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="K58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="L58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5982,50 +6414,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58675</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C59" t="s">
+        <v>543</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="J59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="K59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="L59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6045,50 +6481,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58675</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>178010</v>
+      </c>
+      <c r="C60" t="s">
+        <v>550</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="J60" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="K60" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="L60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="O60" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6108,50 +6548,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58675</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178011</v>
+      </c>
+      <c r="C61" t="s">
+        <v>557</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="J61" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K61" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="L61" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6171,50 +6615,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58675</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178012</v>
+      </c>
+      <c r="C62" t="s">
+        <v>565</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="J62" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="K62" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="L62" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6238,50 +6686,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>58675</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178013</v>
+      </c>
+      <c r="C63" t="s">
+        <v>571</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="J63" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="K63" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="L63" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6305,50 +6757,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>58675</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>178014</v>
+      </c>
+      <c r="C64" t="s">
+        <v>577</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="J64" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="K64" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="L64" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6372,50 +6828,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>58675</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178015</v>
+      </c>
+      <c r="C65" t="s">
+        <v>584</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="J65" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="K65" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="L65" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="O65" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6439,50 +6899,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>58675</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178016</v>
+      </c>
+      <c r="C66" t="s">
+        <v>591</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="J66" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="K66" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="L66" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6506,50 +6970,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58675</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>178017</v>
+      </c>
+      <c r="C67" t="s">
+        <v>598</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="J67" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="K67" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="L67" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6563,50 +7031,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>58675</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>178018</v>
+      </c>
+      <c r="C68" t="s">
+        <v>606</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="J68" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="K68" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="L68" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="O68" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6630,50 +7102,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>58675</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>178019</v>
+      </c>
+      <c r="C69" t="s">
+        <v>614</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="J69" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="K69" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="L69" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6697,7 +7173,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
